--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-19.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="123">
   <si>
     <t>League</t>
   </si>
@@ -211,15 +211,24 @@
     <t>IDMercado_Correct_Score</t>
   </si>
   <si>
+    <t>Italian Serie C</t>
+  </si>
+  <si>
+    <t>Venezuelan Primera Division</t>
+  </si>
+  <si>
+    <t>English League 2</t>
+  </si>
+  <si>
+    <t>Scottish League One</t>
+  </si>
+  <si>
+    <t>English National League</t>
+  </si>
+  <si>
     <t>Ecuadorian Serie A</t>
   </si>
   <si>
-    <t>English League 2</t>
-  </si>
-  <si>
-    <t>Scottish League One</t>
-  </si>
-  <si>
     <t>Uruguayan Primera Division</t>
   </si>
   <si>
@@ -229,6 +238,9 @@
     <t>2024-03-19</t>
   </si>
   <si>
+    <t>15:30:00</t>
+  </si>
+  <si>
     <t>16:00:00</t>
   </si>
   <si>
@@ -247,94 +259,130 @@
     <t>21:15:00</t>
   </si>
   <si>
+    <t>LR Vicenza Virtus</t>
+  </si>
+  <si>
+    <t>Estudiantes de Merida</t>
+  </si>
+  <si>
+    <t>Bradford</t>
+  </si>
+  <si>
+    <t>Kelty Hearts</t>
+  </si>
+  <si>
+    <t>Barnet</t>
+  </si>
+  <si>
     <t>Cumbaya FC</t>
   </si>
   <si>
-    <t>Bradford</t>
-  </si>
-  <si>
-    <t>Kelty Hearts</t>
+    <t>Deportivo Maldonado</t>
+  </si>
+  <si>
+    <t>Deportivo La Guaira</t>
   </si>
   <si>
     <t>Orense Sporting Club</t>
   </si>
   <si>
-    <t>Deportivo Maldonado</t>
-  </si>
-  <si>
     <t>Libertad FC</t>
   </si>
   <si>
     <t>Argentinos Juniors</t>
   </si>
   <si>
+    <t>Fiorenzuola</t>
+  </si>
+  <si>
+    <t>Universidad de Venezuela</t>
+  </si>
+  <si>
+    <t>Notts Co</t>
+  </si>
+  <si>
+    <t>Alloa</t>
+  </si>
+  <si>
+    <t>Eastleigh</t>
+  </si>
+  <si>
     <t>Mushuc Runa</t>
   </si>
   <si>
-    <t>Notts Co</t>
-  </si>
-  <si>
-    <t>Alloa</t>
+    <t>Defensor Sporting</t>
+  </si>
+  <si>
+    <t>Carabobo FC</t>
   </si>
   <si>
     <t>Imbabura Sporting Club</t>
   </si>
   <si>
-    <t>Defensor Sporting</t>
-  </si>
-  <si>
     <t>LDU</t>
   </si>
   <si>
     <t>Rosario Central</t>
   </si>
   <si>
-    <t>33115529</t>
-  </si>
-  <si>
-    <t>33116591</t>
-  </si>
-  <si>
-    <t>33100630</t>
-  </si>
-  <si>
-    <t>33115767</t>
-  </si>
-  <si>
-    <t>33100571</t>
-  </si>
-  <si>
-    <t>1.226265522</t>
-  </si>
-  <si>
-    <t>1.226290831</t>
-  </si>
-  <si>
-    <t>1.226061147</t>
-  </si>
-  <si>
-    <t>1.226269686</t>
-  </si>
-  <si>
-    <t>1.226056040</t>
-  </si>
-  <si>
-    <t>1.226265567</t>
-  </si>
-  <si>
-    <t>1.226290876</t>
-  </si>
-  <si>
-    <t>1.226061192</t>
-  </si>
-  <si>
-    <t>1.226269731</t>
-  </si>
-  <si>
-    <t>1.226056050</t>
-  </si>
-  <si>
-    <t>1.226056049</t>
+    <t>33118895</t>
+  </si>
+  <si>
+    <t>33118956</t>
+  </si>
+  <si>
+    <t>33114877</t>
+  </si>
+  <si>
+    <t>33119269</t>
+  </si>
+  <si>
+    <t>1.226330225</t>
+  </si>
+  <si>
+    <t>1.226331708</t>
+  </si>
+  <si>
+    <t>1.226310184</t>
+  </si>
+  <si>
+    <t>1.226337095</t>
+  </si>
+  <si>
+    <t>1.226330270</t>
+  </si>
+  <si>
+    <t>1.226331753</t>
+  </si>
+  <si>
+    <t>1.226310187</t>
+  </si>
+  <si>
+    <t>1.226337140</t>
+  </si>
+  <si>
+    <t>1.226330309</t>
+  </si>
+  <si>
+    <t>1.226331792</t>
+  </si>
+  <si>
+    <t>1.226310231</t>
+  </si>
+  <si>
+    <t>1.226337179</t>
+  </si>
+  <si>
+    <t>1.226330234</t>
+  </si>
+  <si>
+    <t>1.226331717</t>
+  </si>
+  <si>
+    <t>1.226310232</t>
+  </si>
+  <si>
+    <t>1.226337104</t>
   </si>
 </sst>
 </file>
@@ -692,7 +740,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM8"/>
+  <dimension ref="A1:BM12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -900,196 +948,196 @@
         <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F2">
-        <v>1.6</v>
+        <v>1.29</v>
       </c>
       <c r="G2">
-        <v>4.3</v>
+        <v>1.34</v>
       </c>
       <c r="H2">
-        <v>1.3</v>
+        <v>13.5</v>
       </c>
       <c r="I2">
-        <v>2.66</v>
+        <v>18.5</v>
       </c>
       <c r="J2">
-        <v>2.54</v>
+        <v>5.2</v>
       </c>
       <c r="K2">
-        <v>950</v>
+        <v>6.4</v>
       </c>
       <c r="L2">
-        <v>1.34</v>
+        <v>2</v>
       </c>
       <c r="M2">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="N2">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="O2">
-        <v>3.95</v>
+        <v>2</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AU2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AW2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX2">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AY2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA2">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="BB2">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD2">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="BE2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="BG2">
-        <v>25894882</v>
+        <v>19857199</v>
       </c>
       <c r="BH2">
-        <v>8225986</v>
+        <v>9009617</v>
       </c>
       <c r="BI2">
         <v>58805</v>
       </c>
       <c r="BJ2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="BK2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BM2">
-        <v>0</v>
+        <v>111</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>115</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:65">
@@ -1097,196 +1145,196 @@
         <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>2.44</v>
       </c>
       <c r="G3">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="H3">
-        <v>3.7</v>
+        <v>2.56</v>
       </c>
       <c r="I3">
-        <v>4.4</v>
+        <v>3.55</v>
       </c>
       <c r="J3">
-        <v>3.45</v>
+        <v>2.38</v>
       </c>
       <c r="K3">
-        <v>4.2</v>
+        <v>330</v>
       </c>
       <c r="L3">
-        <v>2.2</v>
+        <v>1.56</v>
       </c>
       <c r="M3">
-        <v>2.38</v>
+        <v>2.26</v>
       </c>
       <c r="N3">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="O3">
-        <v>1.83</v>
+        <v>3.8</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR3">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="AS3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT3">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AU3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV3">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AW3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX3">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AY3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BF3">
-        <v>33114514</v>
+        <v>1000</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>104</v>
       </c>
       <c r="BG3">
-        <v>48444</v>
+        <v>7838019</v>
       </c>
       <c r="BH3">
-        <v>486328</v>
+        <v>39170146</v>
       </c>
       <c r="BI3">
         <v>58805</v>
       </c>
-      <c r="BJ3">
-        <v>1.226247298</v>
-      </c>
-      <c r="BK3">
-        <v>0</v>
-      </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
-      <c r="BM3">
-        <v>0</v>
+      <c r="BJ3" t="s">
+        <v>108</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>112</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>116</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:65">
@@ -1294,187 +1342,187 @@
         <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F4">
-        <v>2.92</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>3.7</v>
+        <v>2.04</v>
       </c>
       <c r="H4">
-        <v>2.06</v>
+        <v>4.1</v>
       </c>
       <c r="I4">
-        <v>2.34</v>
+        <v>4.3</v>
       </c>
       <c r="J4">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="K4">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="L4">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="M4">
-        <v>2.54</v>
+        <v>2.32</v>
       </c>
       <c r="N4">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="O4">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AR4">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AS4">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AU4">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AV4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AW4">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AX4">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AY4">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AZ4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BA4">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="BB4">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="BC4">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="BD4">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BE4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF4">
-        <v>33114685</v>
+        <v>33114514</v>
       </c>
       <c r="BG4">
-        <v>10317903</v>
+        <v>48444</v>
       </c>
       <c r="BH4">
-        <v>203715</v>
+        <v>486328</v>
       </c>
       <c r="BI4">
         <v>58805</v>
       </c>
       <c r="BJ4">
-        <v>1.226255971</v>
+        <v>1.226247298</v>
       </c>
       <c r="BK4">
         <v>0</v>
@@ -1488,193 +1536,193 @@
     </row>
     <row r="5" spans="1:65">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="F5">
-        <v>1.04</v>
+        <v>3.95</v>
       </c>
       <c r="G5">
-        <v>480</v>
+        <v>4.3</v>
       </c>
       <c r="H5">
-        <v>1.04</v>
+        <v>1.9</v>
       </c>
       <c r="I5">
-        <v>870</v>
+        <v>1.94</v>
       </c>
       <c r="J5">
-        <v>1.21</v>
+        <v>4.2</v>
       </c>
       <c r="K5">
-        <v>950</v>
+        <v>4.6</v>
       </c>
       <c r="L5">
-        <v>1.07</v>
+        <v>2.36</v>
       </c>
       <c r="M5">
-        <v>1000</v>
+        <v>2.54</v>
       </c>
       <c r="N5">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="O5">
+        <v>1.74</v>
+      </c>
+      <c r="P5">
+        <v>1.65</v>
+      </c>
+      <c r="Q5">
+        <v>1.72</v>
+      </c>
+      <c r="R5">
+        <v>2.38</v>
+      </c>
+      <c r="S5">
+        <v>2.54</v>
+      </c>
+      <c r="T5">
+        <v>16.5</v>
+      </c>
+      <c r="U5">
         <v>21</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
       <c r="V5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AS5">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AT5">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AU5">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AV5">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AW5">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AX5">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AY5">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AZ5">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="BA5">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="BB5">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="BC5">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BD5">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="BE5">
-        <v>0</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>92</v>
+        <v>1000</v>
+      </c>
+      <c r="BF5">
+        <v>33114685</v>
       </c>
       <c r="BG5">
-        <v>17583926</v>
+        <v>10317903</v>
       </c>
       <c r="BH5">
-        <v>13638535</v>
+        <v>203715</v>
       </c>
       <c r="BI5">
         <v>58805</v>
       </c>
-      <c r="BJ5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>102</v>
+      <c r="BJ5">
+        <v>1.226255971</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
       </c>
       <c r="BL5">
         <v>0</v>
@@ -1685,390 +1733,390 @@
     </row>
     <row r="6" spans="1:65">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F6">
-        <v>3.05</v>
+        <v>1.4</v>
       </c>
       <c r="G6">
-        <v>480</v>
+        <v>1.43</v>
       </c>
       <c r="H6">
-        <v>1.84</v>
+        <v>3.3</v>
       </c>
       <c r="I6">
-        <v>2.2</v>
+        <v>16</v>
       </c>
       <c r="J6">
-        <v>2.76</v>
+        <v>4.8</v>
       </c>
       <c r="K6">
-        <v>350</v>
+        <v>7.6</v>
       </c>
       <c r="L6">
+        <v>2.22</v>
+      </c>
+      <c r="M6">
+        <v>4.6</v>
+      </c>
+      <c r="N6">
+        <v>1.28</v>
+      </c>
+      <c r="O6">
         <v>1.81</v>
       </c>
-      <c r="M6">
-        <v>2.1</v>
-      </c>
-      <c r="N6">
-        <v>1.9</v>
-      </c>
-      <c r="O6">
-        <v>2.24</v>
-      </c>
       <c r="P6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR6">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV6">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AW6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX6">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AY6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD6">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="BE6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF6" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="BG6">
-        <v>10932747</v>
+        <v>1165</v>
       </c>
       <c r="BH6">
-        <v>1222679</v>
+        <v>1222691</v>
       </c>
       <c r="BI6">
         <v>58805</v>
       </c>
       <c r="BJ6" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="BK6" t="s">
-        <v>103</v>
-      </c>
-      <c r="BL6">
-        <v>0</v>
-      </c>
-      <c r="BM6">
-        <v>0</v>
+        <v>113</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>117</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:65">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7">
+        <v>3.2</v>
+      </c>
+      <c r="G7">
+        <v>3.5</v>
+      </c>
+      <c r="H7">
+        <v>2.32</v>
+      </c>
+      <c r="I7">
+        <v>2.44</v>
+      </c>
+      <c r="J7">
+        <v>3.35</v>
+      </c>
+      <c r="K7">
+        <v>3.85</v>
+      </c>
+      <c r="L7">
+        <v>1.8</v>
+      </c>
+      <c r="M7">
+        <v>1.9</v>
+      </c>
+      <c r="N7">
+        <v>2.12</v>
+      </c>
+      <c r="O7">
+        <v>2.26</v>
+      </c>
+      <c r="P7">
+        <v>1.86</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>2.18</v>
+      </c>
+      <c r="T7">
+        <v>10.5</v>
+      </c>
+      <c r="U7">
+        <v>14.5</v>
+      </c>
+      <c r="V7">
+        <v>8.6</v>
+      </c>
+      <c r="W7">
+        <v>11.5</v>
+      </c>
+      <c r="X7">
+        <v>13</v>
+      </c>
+      <c r="Y7">
+        <v>17.5</v>
+      </c>
+      <c r="Z7">
+        <v>27</v>
+      </c>
+      <c r="AA7">
+        <v>38</v>
+      </c>
+      <c r="AB7">
+        <v>10.5</v>
+      </c>
+      <c r="AC7">
+        <v>14</v>
+      </c>
+      <c r="AD7">
+        <v>7.2</v>
+      </c>
+      <c r="AE7">
+        <v>8</v>
+      </c>
+      <c r="AF7">
+        <v>10</v>
+      </c>
+      <c r="AG7">
+        <v>14.5</v>
+      </c>
+      <c r="AH7">
+        <v>23</v>
+      </c>
+      <c r="AI7">
+        <v>34</v>
+      </c>
+      <c r="AJ7">
+        <v>20</v>
+      </c>
+      <c r="AK7">
+        <v>27</v>
+      </c>
+      <c r="AL7">
+        <v>13</v>
+      </c>
+      <c r="AM7">
+        <v>17.5</v>
+      </c>
+      <c r="AN7">
+        <v>17</v>
+      </c>
+      <c r="AO7">
+        <v>24</v>
+      </c>
+      <c r="AP7">
+        <v>32</v>
+      </c>
+      <c r="AQ7">
+        <v>55</v>
+      </c>
+      <c r="AR7">
+        <v>44</v>
+      </c>
+      <c r="AS7">
+        <v>75</v>
+      </c>
+      <c r="AT7">
+        <v>30</v>
+      </c>
+      <c r="AU7">
+        <v>50</v>
+      </c>
+      <c r="AV7">
+        <v>40</v>
+      </c>
+      <c r="AW7">
         <v>70</v>
       </c>
-      <c r="C7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7">
-        <v>3.4</v>
-      </c>
-      <c r="G7">
-        <v>480</v>
-      </c>
-      <c r="H7">
-        <v>1.58</v>
-      </c>
-      <c r="I7">
-        <v>1.74</v>
-      </c>
-      <c r="J7">
-        <v>2.36</v>
-      </c>
-      <c r="K7">
-        <v>950</v>
-      </c>
-      <c r="L7">
-        <v>1.34</v>
-      </c>
-      <c r="M7">
-        <v>2.4</v>
-      </c>
-      <c r="N7">
-        <v>1.71</v>
-      </c>
-      <c r="O7">
-        <v>3.95</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
-      <c r="AS7">
-        <v>0</v>
-      </c>
-      <c r="AT7">
-        <v>0</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-      <c r="AV7">
-        <v>0</v>
-      </c>
-      <c r="AW7">
-        <v>0</v>
-      </c>
       <c r="AX7">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AY7">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AZ7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="BB7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="BD7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="BE7">
-        <v>0</v>
-      </c>
-      <c r="BF7" t="s">
-        <v>94</v>
+        <v>1000</v>
+      </c>
+      <c r="BF7">
+        <v>33115529</v>
       </c>
       <c r="BG7">
-        <v>44232344</v>
+        <v>25894882</v>
       </c>
       <c r="BH7">
-        <v>474678</v>
+        <v>8225986</v>
       </c>
       <c r="BI7">
         <v>58805</v>
       </c>
-      <c r="BJ7" t="s">
-        <v>99</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>104</v>
+      <c r="BJ7">
+        <v>1.226265522</v>
+      </c>
+      <c r="BK7">
+        <v>1.226265567</v>
       </c>
       <c r="BL7">
         <v>0</v>
@@ -2079,199 +2127,987 @@
     </row>
     <row r="8" spans="1:65">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F8">
-        <v>1.97</v>
+        <v>1.04</v>
       </c>
       <c r="G8">
-        <v>2.06</v>
+        <v>980</v>
       </c>
       <c r="H8">
-        <v>4.5</v>
+        <v>1.84</v>
       </c>
       <c r="I8">
-        <v>5.4</v>
+        <v>2.42</v>
       </c>
       <c r="J8">
-        <v>3.2</v>
+        <v>2.96</v>
       </c>
       <c r="K8">
-        <v>3.6</v>
+        <v>950</v>
       </c>
       <c r="L8">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="M8">
-        <v>1.72</v>
+        <v>2.7</v>
       </c>
       <c r="N8">
-        <v>2.4</v>
+        <v>1.59</v>
       </c>
       <c r="O8">
-        <v>2.74</v>
+        <v>3.95</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T8">
-        <v>3.7</v>
+        <v>1.43</v>
       </c>
       <c r="U8">
         <v>980</v>
       </c>
       <c r="V8">
-        <v>4.3</v>
+        <v>1.1</v>
       </c>
       <c r="W8">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="X8">
-        <v>3.05</v>
+        <v>1.1</v>
       </c>
       <c r="Y8">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z8">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="AA8">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB8">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="AC8">
         <v>980</v>
       </c>
       <c r="AD8">
-        <v>3.45</v>
+        <v>1.1</v>
       </c>
       <c r="AE8">
         <v>980</v>
       </c>
       <c r="AF8">
-        <v>4.9</v>
+        <v>1.1</v>
       </c>
       <c r="AG8">
         <v>980</v>
       </c>
       <c r="AH8">
-        <v>5.7</v>
+        <v>1.1</v>
       </c>
       <c r="AI8">
+        <v>1000</v>
+      </c>
+      <c r="AJ8">
+        <v>1.1</v>
+      </c>
+      <c r="AK8">
+        <v>1000</v>
+      </c>
+      <c r="AL8">
+        <v>1.1</v>
+      </c>
+      <c r="AM8">
         <v>980</v>
       </c>
-      <c r="AJ8">
-        <v>4.1</v>
-      </c>
-      <c r="AK8">
-        <v>13</v>
-      </c>
-      <c r="AL8">
-        <v>4.2</v>
-      </c>
-      <c r="AM8">
-        <v>13.5</v>
-      </c>
       <c r="AN8">
-        <v>5.1</v>
+        <v>1.1</v>
       </c>
       <c r="AO8">
         <v>980</v>
       </c>
       <c r="AP8">
-        <v>5.8</v>
+        <v>1.1</v>
       </c>
       <c r="AQ8">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AR8">
-        <v>5</v>
+        <v>1.1</v>
       </c>
       <c r="AS8">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AT8">
-        <v>5.1</v>
+        <v>1.1</v>
       </c>
       <c r="AU8">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AV8">
-        <v>9</v>
+        <v>1.1</v>
       </c>
       <c r="AW8">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AX8">
-        <v>1.88</v>
+        <v>1.1</v>
       </c>
       <c r="AY8">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AZ8">
-        <v>1.75</v>
+        <v>1.1</v>
       </c>
       <c r="BA8">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="BB8">
-        <v>1.86</v>
+        <v>1.1</v>
       </c>
       <c r="BC8">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="BD8">
-        <v>1.88</v>
+        <v>1.1</v>
       </c>
       <c r="BE8">
         <v>1000</v>
       </c>
-      <c r="BF8" t="s">
-        <v>95</v>
+      <c r="BF8">
+        <v>33100630</v>
       </c>
       <c r="BG8">
-        <v>453739</v>
+        <v>10932747</v>
       </c>
       <c r="BH8">
-        <v>220949</v>
+        <v>1222679</v>
       </c>
       <c r="BI8">
         <v>58805</v>
       </c>
-      <c r="BJ8" t="s">
-        <v>100</v>
-      </c>
-      <c r="BK8" t="s">
-        <v>105</v>
+      <c r="BJ8">
+        <v>1.226061147</v>
+      </c>
+      <c r="BK8">
+        <v>1.226061192</v>
       </c>
       <c r="BL8">
         <v>0</v>
       </c>
-      <c r="BM8" t="s">
+      <c r="BM8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:65">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9">
+        <v>1.04</v>
+      </c>
+      <c r="G9">
+        <v>1000</v>
+      </c>
+      <c r="H9">
+        <v>1.04</v>
+      </c>
+      <c r="I9">
+        <v>1000</v>
+      </c>
+      <c r="J9">
+        <v>1.01</v>
+      </c>
+      <c r="K9">
+        <v>1000</v>
+      </c>
+      <c r="L9">
+        <v>1.01</v>
+      </c>
+      <c r="M9">
+        <v>1000</v>
+      </c>
+      <c r="N9">
+        <v>1.01</v>
+      </c>
+      <c r="O9">
+        <v>1000</v>
+      </c>
+      <c r="P9">
+        <v>1.01</v>
+      </c>
+      <c r="Q9">
+        <v>1000</v>
+      </c>
+      <c r="R9">
+        <v>1.01</v>
+      </c>
+      <c r="S9">
+        <v>1000</v>
+      </c>
+      <c r="T9">
+        <v>1.01</v>
+      </c>
+      <c r="U9">
+        <v>1000</v>
+      </c>
+      <c r="V9">
+        <v>1.01</v>
+      </c>
+      <c r="W9">
+        <v>1000</v>
+      </c>
+      <c r="X9">
+        <v>1.01</v>
+      </c>
+      <c r="Y9">
+        <v>1000</v>
+      </c>
+      <c r="Z9">
+        <v>1.01</v>
+      </c>
+      <c r="AA9">
+        <v>1000</v>
+      </c>
+      <c r="AB9">
+        <v>1.01</v>
+      </c>
+      <c r="AC9">
+        <v>1000</v>
+      </c>
+      <c r="AD9">
+        <v>1.01</v>
+      </c>
+      <c r="AE9">
+        <v>1000</v>
+      </c>
+      <c r="AF9">
+        <v>1.01</v>
+      </c>
+      <c r="AG9">
+        <v>1000</v>
+      </c>
+      <c r="AH9">
+        <v>1.01</v>
+      </c>
+      <c r="AI9">
+        <v>1000</v>
+      </c>
+      <c r="AJ9">
+        <v>1.01</v>
+      </c>
+      <c r="AK9">
+        <v>1000</v>
+      </c>
+      <c r="AL9">
+        <v>1.01</v>
+      </c>
+      <c r="AM9">
+        <v>1000</v>
+      </c>
+      <c r="AN9">
+        <v>1.01</v>
+      </c>
+      <c r="AO9">
+        <v>1000</v>
+      </c>
+      <c r="AP9">
+        <v>1.01</v>
+      </c>
+      <c r="AQ9">
+        <v>1000</v>
+      </c>
+      <c r="AR9">
+        <v>1.01</v>
+      </c>
+      <c r="AS9">
+        <v>1000</v>
+      </c>
+      <c r="AT9">
+        <v>1.01</v>
+      </c>
+      <c r="AU9">
+        <v>1000</v>
+      </c>
+      <c r="AV9">
+        <v>1.01</v>
+      </c>
+      <c r="AW9">
+        <v>1000</v>
+      </c>
+      <c r="AX9">
+        <v>1.01</v>
+      </c>
+      <c r="AY9">
+        <v>1000</v>
+      </c>
+      <c r="AZ9">
+        <v>1.01</v>
+      </c>
+      <c r="BA9">
+        <v>1000</v>
+      </c>
+      <c r="BB9">
+        <v>1.01</v>
+      </c>
+      <c r="BC9">
+        <v>1000</v>
+      </c>
+      <c r="BD9">
+        <v>1.01</v>
+      </c>
+      <c r="BE9">
+        <v>1000</v>
+      </c>
+      <c r="BF9" t="s">
         <v>106</v>
+      </c>
+      <c r="BG9">
+        <v>7658015</v>
+      </c>
+      <c r="BH9">
+        <v>893607</v>
+      </c>
+      <c r="BI9">
+        <v>58805</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>114</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>118</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:65">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <v>1.78</v>
+      </c>
+      <c r="G10">
+        <v>1.88</v>
+      </c>
+      <c r="H10">
+        <v>4.9</v>
+      </c>
+      <c r="I10">
+        <v>6.4</v>
+      </c>
+      <c r="J10">
+        <v>3.7</v>
+      </c>
+      <c r="K10">
+        <v>4.5</v>
+      </c>
+      <c r="L10">
+        <v>1.85</v>
+      </c>
+      <c r="M10">
+        <v>2.14</v>
+      </c>
+      <c r="N10">
+        <v>1.88</v>
+      </c>
+      <c r="O10">
+        <v>2.18</v>
+      </c>
+      <c r="P10">
+        <v>1.83</v>
+      </c>
+      <c r="Q10">
+        <v>2.14</v>
+      </c>
+      <c r="R10">
+        <v>1.88</v>
+      </c>
+      <c r="S10">
+        <v>2.2</v>
+      </c>
+      <c r="T10">
+        <v>11</v>
+      </c>
+      <c r="U10">
+        <v>980</v>
+      </c>
+      <c r="V10">
+        <v>5.3</v>
+      </c>
+      <c r="W10">
+        <v>980</v>
+      </c>
+      <c r="X10">
+        <v>6</v>
+      </c>
+      <c r="Y10">
+        <v>46</v>
+      </c>
+      <c r="Z10">
+        <v>6.6</v>
+      </c>
+      <c r="AA10">
+        <v>150</v>
+      </c>
+      <c r="AB10">
+        <v>3.9</v>
+      </c>
+      <c r="AC10">
+        <v>980</v>
+      </c>
+      <c r="AD10">
+        <v>4.2</v>
+      </c>
+      <c r="AE10">
+        <v>980</v>
+      </c>
+      <c r="AF10">
+        <v>5.4</v>
+      </c>
+      <c r="AG10">
+        <v>980</v>
+      </c>
+      <c r="AH10">
+        <v>6.4</v>
+      </c>
+      <c r="AI10">
+        <v>80</v>
+      </c>
+      <c r="AJ10">
+        <v>8.4</v>
+      </c>
+      <c r="AK10">
+        <v>11.5</v>
+      </c>
+      <c r="AL10">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AM10">
+        <v>11.5</v>
+      </c>
+      <c r="AN10">
+        <v>5.4</v>
+      </c>
+      <c r="AO10">
+        <v>980</v>
+      </c>
+      <c r="AP10">
+        <v>6.4</v>
+      </c>
+      <c r="AQ10">
+        <v>90</v>
+      </c>
+      <c r="AR10">
+        <v>5.5</v>
+      </c>
+      <c r="AS10">
+        <v>20</v>
+      </c>
+      <c r="AT10">
+        <v>5.2</v>
+      </c>
+      <c r="AU10">
+        <v>21</v>
+      </c>
+      <c r="AV10">
+        <v>6</v>
+      </c>
+      <c r="AW10">
+        <v>42</v>
+      </c>
+      <c r="AX10">
+        <v>6.6</v>
+      </c>
+      <c r="AY10">
+        <v>1000</v>
+      </c>
+      <c r="AZ10">
+        <v>4.5</v>
+      </c>
+      <c r="BA10">
+        <v>13</v>
+      </c>
+      <c r="BB10">
+        <v>6.4</v>
+      </c>
+      <c r="BC10">
+        <v>95</v>
+      </c>
+      <c r="BD10">
+        <v>7</v>
+      </c>
+      <c r="BE10">
+        <v>1000</v>
+      </c>
+      <c r="BF10">
+        <v>33116591</v>
+      </c>
+      <c r="BG10">
+        <v>17583926</v>
+      </c>
+      <c r="BH10">
+        <v>13638535</v>
+      </c>
+      <c r="BI10">
+        <v>58805</v>
+      </c>
+      <c r="BJ10">
+        <v>1.226290831</v>
+      </c>
+      <c r="BK10">
+        <v>1.226290876</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:65">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11">
+        <v>6.2</v>
+      </c>
+      <c r="G11">
+        <v>7.8</v>
+      </c>
+      <c r="H11">
+        <v>1.55</v>
+      </c>
+      <c r="I11">
+        <v>1.62</v>
+      </c>
+      <c r="J11">
+        <v>4.3</v>
+      </c>
+      <c r="K11">
+        <v>5.1</v>
+      </c>
+      <c r="L11">
+        <v>2.08</v>
+      </c>
+      <c r="M11">
+        <v>2.24</v>
+      </c>
+      <c r="N11">
+        <v>1.81</v>
+      </c>
+      <c r="O11">
+        <v>1.93</v>
+      </c>
+      <c r="P11">
+        <v>1.91</v>
+      </c>
+      <c r="Q11">
+        <v>2.06</v>
+      </c>
+      <c r="R11">
+        <v>1.96</v>
+      </c>
+      <c r="S11">
+        <v>2.1</v>
+      </c>
+      <c r="T11">
+        <v>14</v>
+      </c>
+      <c r="U11">
+        <v>19</v>
+      </c>
+      <c r="V11">
+        <v>7.2</v>
+      </c>
+      <c r="W11">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="X11">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y11">
+        <v>10.5</v>
+      </c>
+      <c r="Z11">
+        <v>13</v>
+      </c>
+      <c r="AA11">
+        <v>16.5</v>
+      </c>
+      <c r="AB11">
+        <v>20</v>
+      </c>
+      <c r="AC11">
+        <v>25</v>
+      </c>
+      <c r="AD11">
+        <v>9</v>
+      </c>
+      <c r="AE11">
+        <v>11.5</v>
+      </c>
+      <c r="AF11">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG11">
+        <v>11</v>
+      </c>
+      <c r="AH11">
+        <v>13.5</v>
+      </c>
+      <c r="AI11">
+        <v>18</v>
+      </c>
+      <c r="AJ11">
+        <v>42</v>
+      </c>
+      <c r="AK11">
+        <v>60</v>
+      </c>
+      <c r="AL11">
+        <v>22</v>
+      </c>
+      <c r="AM11">
+        <v>28</v>
+      </c>
+      <c r="AN11">
+        <v>19</v>
+      </c>
+      <c r="AO11">
+        <v>26</v>
+      </c>
+      <c r="AP11">
+        <v>28</v>
+      </c>
+      <c r="AQ11">
+        <v>40</v>
+      </c>
+      <c r="AR11">
+        <v>4.2</v>
+      </c>
+      <c r="AS11">
+        <v>1000</v>
+      </c>
+      <c r="AT11">
+        <v>4</v>
+      </c>
+      <c r="AU11">
+        <v>100</v>
+      </c>
+      <c r="AV11">
+        <v>14</v>
+      </c>
+      <c r="AW11">
+        <v>100</v>
+      </c>
+      <c r="AX11">
+        <v>13.5</v>
+      </c>
+      <c r="AY11">
+        <v>140</v>
+      </c>
+      <c r="AZ11">
+        <v>1.01</v>
+      </c>
+      <c r="BA11">
+        <v>120</v>
+      </c>
+      <c r="BB11">
+        <v>1.01</v>
+      </c>
+      <c r="BC11">
+        <v>9</v>
+      </c>
+      <c r="BD11">
+        <v>40</v>
+      </c>
+      <c r="BE11">
+        <v>1000</v>
+      </c>
+      <c r="BF11">
+        <v>33115767</v>
+      </c>
+      <c r="BG11">
+        <v>44232344</v>
+      </c>
+      <c r="BH11">
+        <v>474678</v>
+      </c>
+      <c r="BI11">
+        <v>58805</v>
+      </c>
+      <c r="BJ11">
+        <v>1.226269686</v>
+      </c>
+      <c r="BK11">
+        <v>1.226269731</v>
+      </c>
+      <c r="BL11">
+        <v>0</v>
+      </c>
+      <c r="BM11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:65">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12">
+        <v>1.99</v>
+      </c>
+      <c r="G12">
+        <v>2.06</v>
+      </c>
+      <c r="H12">
+        <v>4.5</v>
+      </c>
+      <c r="I12">
+        <v>5.3</v>
+      </c>
+      <c r="J12">
+        <v>3.3</v>
+      </c>
+      <c r="K12">
+        <v>3.55</v>
+      </c>
+      <c r="L12">
+        <v>1.59</v>
+      </c>
+      <c r="M12">
+        <v>1.74</v>
+      </c>
+      <c r="N12">
+        <v>2.36</v>
+      </c>
+      <c r="O12">
+        <v>2.68</v>
+      </c>
+      <c r="P12">
+        <v>2.14</v>
+      </c>
+      <c r="Q12">
+        <v>2.3</v>
+      </c>
+      <c r="R12">
+        <v>1.77</v>
+      </c>
+      <c r="S12">
+        <v>1.88</v>
+      </c>
+      <c r="T12">
+        <v>8.6</v>
+      </c>
+      <c r="U12">
+        <v>9.6</v>
+      </c>
+      <c r="V12">
+        <v>11.5</v>
+      </c>
+      <c r="W12">
+        <v>13.5</v>
+      </c>
+      <c r="X12">
+        <v>29</v>
+      </c>
+      <c r="Y12">
+        <v>34</v>
+      </c>
+      <c r="Z12">
+        <v>13.5</v>
+      </c>
+      <c r="AA12">
+        <v>980</v>
+      </c>
+      <c r="AB12">
+        <v>6.4</v>
+      </c>
+      <c r="AC12">
+        <v>7.2</v>
+      </c>
+      <c r="AD12">
+        <v>7.2</v>
+      </c>
+      <c r="AE12">
+        <v>8</v>
+      </c>
+      <c r="AF12">
+        <v>17.5</v>
+      </c>
+      <c r="AG12">
+        <v>20</v>
+      </c>
+      <c r="AH12">
+        <v>13.5</v>
+      </c>
+      <c r="AI12">
+        <v>980</v>
+      </c>
+      <c r="AJ12">
+        <v>9.6</v>
+      </c>
+      <c r="AK12">
+        <v>10.5</v>
+      </c>
+      <c r="AL12">
+        <v>10</v>
+      </c>
+      <c r="AM12">
+        <v>11.5</v>
+      </c>
+      <c r="AN12">
+        <v>22</v>
+      </c>
+      <c r="AO12">
+        <v>26</v>
+      </c>
+      <c r="AP12">
+        <v>13</v>
+      </c>
+      <c r="AQ12">
+        <v>980</v>
+      </c>
+      <c r="AR12">
+        <v>20</v>
+      </c>
+      <c r="AS12">
+        <v>23</v>
+      </c>
+      <c r="AT12">
+        <v>22</v>
+      </c>
+      <c r="AU12">
+        <v>26</v>
+      </c>
+      <c r="AV12">
+        <v>11.5</v>
+      </c>
+      <c r="AW12">
+        <v>60</v>
+      </c>
+      <c r="AX12">
+        <v>13.5</v>
+      </c>
+      <c r="AY12">
+        <v>580</v>
+      </c>
+      <c r="AZ12">
+        <v>14.5</v>
+      </c>
+      <c r="BA12">
+        <v>21</v>
+      </c>
+      <c r="BB12">
+        <v>13.5</v>
+      </c>
+      <c r="BC12">
+        <v>980</v>
+      </c>
+      <c r="BD12">
+        <v>15</v>
+      </c>
+      <c r="BE12">
+        <v>1000</v>
+      </c>
+      <c r="BF12">
+        <v>33100571</v>
+      </c>
+      <c r="BG12">
+        <v>453739</v>
+      </c>
+      <c r="BH12">
+        <v>220949</v>
+      </c>
+      <c r="BI12">
+        <v>58805</v>
+      </c>
+      <c r="BJ12">
+        <v>1.22605604</v>
+      </c>
+      <c r="BK12">
+        <v>1.22605605</v>
+      </c>
+      <c r="BL12">
+        <v>0</v>
+      </c>
+      <c r="BM12">
+        <v>1.226056049</v>
       </c>
     </row>
   </sheetData>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-19.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="111">
   <si>
     <t>League</t>
   </si>
@@ -253,6 +253,9 @@
     <t>19:00:00</t>
   </si>
   <si>
+    <t>20:00:00</t>
+  </si>
+  <si>
     <t>21:00:00</t>
   </si>
   <si>
@@ -283,6 +286,9 @@
     <t>Deportivo La Guaira</t>
   </si>
   <si>
+    <t>Portuguesa FC</t>
+  </si>
+  <si>
     <t>Orense Sporting Club</t>
   </si>
   <si>
@@ -316,6 +322,9 @@
     <t>Carabobo FC</t>
   </si>
   <si>
+    <t>Metropolitanos</t>
+  </si>
+  <si>
     <t>Imbabura Sporting Club</t>
   </si>
   <si>
@@ -325,64 +334,19 @@
     <t>Rosario Central</t>
   </si>
   <si>
-    <t>33118895</t>
-  </si>
-  <si>
-    <t>33118956</t>
-  </si>
-  <si>
-    <t>33114877</t>
-  </si>
-  <si>
-    <t>33119269</t>
-  </si>
-  <si>
-    <t>1.226330225</t>
-  </si>
-  <si>
-    <t>1.226331708</t>
-  </si>
-  <si>
-    <t>1.226310184</t>
-  </si>
-  <si>
-    <t>1.226337095</t>
-  </si>
-  <si>
-    <t>1.226330270</t>
-  </si>
-  <si>
-    <t>1.226331753</t>
-  </si>
-  <si>
-    <t>1.226310187</t>
-  </si>
-  <si>
-    <t>1.226337140</t>
-  </si>
-  <si>
-    <t>1.226330309</t>
-  </si>
-  <si>
-    <t>1.226331792</t>
-  </si>
-  <si>
-    <t>1.226310231</t>
-  </si>
-  <si>
-    <t>1.226337179</t>
-  </si>
-  <si>
-    <t>1.226330234</t>
-  </si>
-  <si>
-    <t>1.226331717</t>
-  </si>
-  <si>
-    <t>1.226310232</t>
-  </si>
-  <si>
-    <t>1.226337104</t>
+    <t>33119483</t>
+  </si>
+  <si>
+    <t>1.226338669</t>
+  </si>
+  <si>
+    <t>1.226338714</t>
+  </si>
+  <si>
+    <t>1.226338753</t>
+  </si>
+  <si>
+    <t>1.226338678</t>
   </si>
 </sst>
 </file>
@@ -740,7 +704,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM12"/>
+  <dimension ref="A1:BM13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -954,118 +918,118 @@
         <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F2">
         <v>1.29</v>
       </c>
       <c r="G2">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="H2">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <v>18</v>
+      </c>
+      <c r="J2">
+        <v>5.6</v>
+      </c>
+      <c r="K2">
+        <v>6.2</v>
+      </c>
+      <c r="L2">
+        <v>2.08</v>
+      </c>
+      <c r="M2">
+        <v>2.24</v>
+      </c>
+      <c r="N2">
+        <v>1.81</v>
+      </c>
+      <c r="O2">
+        <v>1.93</v>
+      </c>
+      <c r="P2">
+        <v>2.46</v>
+      </c>
+      <c r="Q2">
+        <v>2.64</v>
+      </c>
+      <c r="R2">
+        <v>1.61</v>
+      </c>
+      <c r="S2">
+        <v>1.68</v>
+      </c>
+      <c r="T2">
         <v>13.5</v>
       </c>
-      <c r="I2">
+      <c r="U2">
         <v>18.5</v>
       </c>
-      <c r="J2">
-        <v>5.2</v>
-      </c>
-      <c r="K2">
-        <v>6.4</v>
-      </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
-      <c r="M2">
-        <v>2.14</v>
-      </c>
-      <c r="N2">
-        <v>1.88</v>
-      </c>
-      <c r="O2">
-        <v>2</v>
-      </c>
-      <c r="P2">
-        <v>2.52</v>
-      </c>
-      <c r="Q2">
-        <v>2.72</v>
-      </c>
-      <c r="R2">
-        <v>1.58</v>
-      </c>
-      <c r="S2">
-        <v>1.65</v>
-      </c>
-      <c r="T2">
-        <v>14.5</v>
-      </c>
-      <c r="U2">
-        <v>18</v>
-      </c>
       <c r="V2">
-        <v>30</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="W2">
         <v>42</v>
       </c>
       <c r="X2">
-        <v>110</v>
+        <v>4.2</v>
       </c>
       <c r="Y2">
         <v>160</v>
       </c>
       <c r="Z2">
-        <v>4.2</v>
+        <v>7.6</v>
       </c>
       <c r="AA2">
         <v>1000</v>
       </c>
       <c r="AB2">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="AC2">
         <v>7.8</v>
       </c>
       <c r="AD2">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE2">
         <v>15</v>
       </c>
       <c r="AF2">
-        <v>46</v>
+        <v>4.4</v>
       </c>
       <c r="AG2">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AH2">
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="AI2">
         <v>1000</v>
       </c>
       <c r="AJ2">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AK2">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AL2">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM2">
         <v>12.5</v>
       </c>
       <c r="AN2">
-        <v>34</v>
+        <v>8.4</v>
       </c>
       <c r="AO2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AP2">
         <v>16.5</v>
@@ -1074,49 +1038,49 @@
         <v>1000</v>
       </c>
       <c r="AR2">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AS2">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AT2">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AU2">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AV2">
-        <v>44</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AW2">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AX2">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AY2">
         <v>1000</v>
       </c>
       <c r="AZ2">
-        <v>1.01</v>
+        <v>3.7</v>
       </c>
       <c r="BA2">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="BB2">
-        <v>1.01</v>
+        <v>15</v>
       </c>
       <c r="BC2">
         <v>1000</v>
       </c>
       <c r="BD2">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="BE2">
         <v>1000</v>
       </c>
-      <c r="BF2" t="s">
-        <v>103</v>
+      <c r="BF2">
+        <v>33118895</v>
       </c>
       <c r="BG2">
         <v>19857199</v>
@@ -1127,17 +1091,17 @@
       <c r="BI2">
         <v>58805</v>
       </c>
-      <c r="BJ2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>111</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>115</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>119</v>
+      <c r="BJ2">
+        <v>1.226330225</v>
+      </c>
+      <c r="BK2">
+        <v>1.22633027</v>
+      </c>
+      <c r="BL2">
+        <v>1.226330309</v>
+      </c>
+      <c r="BM2">
+        <v>1.226330234</v>
       </c>
     </row>
     <row r="3" spans="1:65">
@@ -1151,169 +1115,169 @@
         <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F3">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="G3">
+        <v>2.88</v>
+      </c>
+      <c r="H3">
+        <v>2.76</v>
+      </c>
+      <c r="I3">
         <v>3.3</v>
       </c>
-      <c r="H3">
-        <v>2.56</v>
-      </c>
-      <c r="I3">
-        <v>3.55</v>
-      </c>
       <c r="J3">
-        <v>2.38</v>
+        <v>2.98</v>
       </c>
       <c r="K3">
-        <v>330</v>
+        <v>3.6</v>
       </c>
       <c r="L3">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="M3">
-        <v>2.26</v>
+        <v>1.84</v>
       </c>
       <c r="N3">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="O3">
-        <v>3.8</v>
+        <v>2.58</v>
       </c>
       <c r="P3">
-        <v>1.76</v>
+        <v>1.86</v>
       </c>
       <c r="Q3">
-        <v>2.86</v>
+        <v>2.18</v>
       </c>
       <c r="R3">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S3">
-        <v>2.82</v>
+        <v>2.16</v>
       </c>
       <c r="T3">
-        <v>1.47</v>
+        <v>3.5</v>
       </c>
       <c r="U3">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="V3">
-        <v>2.28</v>
+        <v>3.5</v>
       </c>
       <c r="W3">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="X3">
-        <v>2.36</v>
+        <v>3.95</v>
       </c>
       <c r="Y3">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Z3">
-        <v>2.88</v>
+        <v>3.7</v>
       </c>
       <c r="AA3">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB3">
-        <v>2.32</v>
+        <v>3.5</v>
       </c>
       <c r="AC3">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD3">
-        <v>6.2</v>
+        <v>3.1</v>
       </c>
       <c r="AE3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AF3">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="AG3">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH3">
+        <v>3.65</v>
+      </c>
+      <c r="AI3">
+        <v>48</v>
+      </c>
+      <c r="AJ3">
         <v>4</v>
       </c>
-      <c r="AI3">
-        <v>1000</v>
-      </c>
-      <c r="AJ3">
-        <v>2.86</v>
-      </c>
       <c r="AK3">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AL3">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="AM3">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AN3">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="AO3">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AP3">
-        <v>17.5</v>
+        <v>4.4</v>
       </c>
       <c r="AQ3">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AR3">
-        <v>3.55</v>
+        <v>4.3</v>
       </c>
       <c r="AS3">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AT3">
-        <v>8.199999999999999</v>
+        <v>4.3</v>
       </c>
       <c r="AU3">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AV3">
-        <v>12.5</v>
+        <v>3.7</v>
       </c>
       <c r="AW3">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AX3">
-        <v>19</v>
+        <v>4.9</v>
       </c>
       <c r="AY3">
         <v>1000</v>
       </c>
       <c r="AZ3">
-        <v>1.01</v>
+        <v>3.6</v>
       </c>
       <c r="BA3">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="BB3">
-        <v>1.01</v>
+        <v>3.65</v>
       </c>
       <c r="BC3">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="BD3">
-        <v>30</v>
+        <v>5.1</v>
       </c>
       <c r="BE3">
         <v>1000</v>
       </c>
-      <c r="BF3" t="s">
-        <v>104</v>
+      <c r="BF3">
+        <v>33118956</v>
       </c>
       <c r="BG3">
         <v>7838019</v>
@@ -1324,17 +1288,17 @@
       <c r="BI3">
         <v>58805</v>
       </c>
-      <c r="BJ3" t="s">
-        <v>108</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>112</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>116</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>120</v>
+      <c r="BJ3">
+        <v>1.226331708</v>
+      </c>
+      <c r="BK3">
+        <v>1.226331753</v>
+      </c>
+      <c r="BL3">
+        <v>1.226331792</v>
+      </c>
+      <c r="BM3">
+        <v>1.226331717</v>
       </c>
     </row>
     <row r="4" spans="1:65">
@@ -1348,166 +1312,166 @@
         <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F4">
+        <v>1.98</v>
+      </c>
+      <c r="G4">
         <v>2</v>
-      </c>
-      <c r="G4">
-        <v>2.04</v>
       </c>
       <c r="H4">
         <v>4.1</v>
       </c>
       <c r="I4">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J4">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K4">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L4">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="M4">
-        <v>2.32</v>
+        <v>2.46</v>
       </c>
       <c r="N4">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="O4">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="P4">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="Q4">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="R4">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="S4">
-        <v>2.44</v>
+        <v>2.56</v>
       </c>
       <c r="T4">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="U4">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="V4">
-        <v>6.2</v>
+        <v>17.5</v>
       </c>
       <c r="W4">
-        <v>19.5</v>
+        <v>25</v>
       </c>
       <c r="X4">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="Y4">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Z4">
-        <v>8.199999999999999</v>
+        <v>14</v>
       </c>
       <c r="AA4">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AB4">
-        <v>5.1</v>
+        <v>11</v>
       </c>
       <c r="AC4">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD4">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AE4">
         <v>9.199999999999999</v>
       </c>
       <c r="AF4">
-        <v>6</v>
+        <v>14.5</v>
       </c>
       <c r="AG4">
+        <v>16</v>
+      </c>
+      <c r="AH4">
+        <v>36</v>
+      </c>
+      <c r="AI4">
+        <v>42</v>
+      </c>
+      <c r="AJ4">
+        <v>12</v>
+      </c>
+      <c r="AK4">
+        <v>21</v>
+      </c>
+      <c r="AL4">
+        <v>10</v>
+      </c>
+      <c r="AM4">
+        <v>10.5</v>
+      </c>
+      <c r="AN4">
+        <v>14</v>
+      </c>
+      <c r="AO4">
+        <v>16.5</v>
+      </c>
+      <c r="AP4">
+        <v>30</v>
+      </c>
+      <c r="AQ4">
+        <v>46</v>
+      </c>
+      <c r="AR4">
+        <v>21</v>
+      </c>
+      <c r="AS4">
+        <v>23</v>
+      </c>
+      <c r="AT4">
+        <v>16.5</v>
+      </c>
+      <c r="AU4">
         <v>18</v>
       </c>
-      <c r="AH4">
-        <v>7.6</v>
-      </c>
-      <c r="AI4">
-        <v>48</v>
-      </c>
-      <c r="AJ4">
-        <v>5.6</v>
-      </c>
-      <c r="AK4">
-        <v>14.5</v>
-      </c>
-      <c r="AL4">
-        <v>9.6</v>
-      </c>
-      <c r="AM4">
+      <c r="AV4">
+        <v>25</v>
+      </c>
+      <c r="AW4">
+        <v>29</v>
+      </c>
+      <c r="AX4">
+        <v>44</v>
+      </c>
+      <c r="AY4">
+        <v>75</v>
+      </c>
+      <c r="AZ4">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BA4">
         <v>11</v>
       </c>
-      <c r="AN4">
-        <v>6</v>
-      </c>
-      <c r="AO4">
-        <v>18</v>
-      </c>
-      <c r="AP4">
-        <v>7.8</v>
-      </c>
-      <c r="AQ4">
-        <v>55</v>
-      </c>
-      <c r="AR4">
-        <v>6.6</v>
-      </c>
-      <c r="AS4">
-        <v>26</v>
-      </c>
-      <c r="AT4">
-        <v>6.2</v>
-      </c>
-      <c r="AU4">
-        <v>21</v>
-      </c>
-      <c r="AV4">
-        <v>7</v>
-      </c>
-      <c r="AW4">
-        <v>34</v>
-      </c>
-      <c r="AX4">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AY4">
-        <v>85</v>
-      </c>
-      <c r="AZ4">
-        <v>5</v>
-      </c>
-      <c r="BA4">
+      <c r="BB4">
         <v>11.5</v>
       </c>
-      <c r="BB4">
-        <v>7.4</v>
-      </c>
       <c r="BC4">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="BD4">
-        <v>8.800000000000001</v>
+        <v>15</v>
       </c>
       <c r="BE4">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="BF4">
         <v>33114514</v>
@@ -1545,70 +1509,70 @@
         <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F5">
         <v>3.95</v>
       </c>
       <c r="G5">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H5">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="I5">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="J5">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="K5">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L5">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="M5">
-        <v>2.54</v>
+        <v>2.46</v>
       </c>
       <c r="N5">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="O5">
+        <v>1.78</v>
+      </c>
+      <c r="P5">
+        <v>1.67</v>
+      </c>
+      <c r="Q5">
         <v>1.74</v>
       </c>
-      <c r="P5">
-        <v>1.65</v>
-      </c>
-      <c r="Q5">
-        <v>1.72</v>
-      </c>
       <c r="R5">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="S5">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="T5">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="U5">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="V5">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="W5">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="X5">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y5">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z5">
         <v>20</v>
@@ -1617,19 +1581,19 @@
         <v>23</v>
       </c>
       <c r="AB5">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD5">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="AE5">
         <v>10</v>
       </c>
       <c r="AF5">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AG5">
         <v>10.5</v>
@@ -1638,73 +1602,73 @@
         <v>16</v>
       </c>
       <c r="AI5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ5">
-        <v>10.5</v>
+        <v>27</v>
       </c>
       <c r="AK5">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AL5">
         <v>14.5</v>
       </c>
       <c r="AM5">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AN5">
-        <v>7.6</v>
+        <v>15</v>
       </c>
       <c r="AO5">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AP5">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AQ5">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AR5">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AS5">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AT5">
-        <v>11.5</v>
+        <v>9</v>
       </c>
       <c r="AU5">
         <v>44</v>
       </c>
       <c r="AV5">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AW5">
         <v>48</v>
       </c>
       <c r="AX5">
-        <v>9.4</v>
+        <v>34</v>
       </c>
       <c r="AY5">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AZ5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA5">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="BB5">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="BC5">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BD5">
-        <v>3.8</v>
+        <v>15</v>
       </c>
       <c r="BE5">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="BF5">
         <v>33114685</v>
@@ -1742,169 +1706,169 @@
         <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F6">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="G6">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="H6">
-        <v>3.3</v>
+        <v>8.6</v>
       </c>
       <c r="I6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J6">
-        <v>4.8</v>
+        <v>5.9</v>
       </c>
       <c r="K6">
-        <v>7.6</v>
+        <v>6.4</v>
       </c>
       <c r="L6">
-        <v>2.22</v>
+        <v>2.88</v>
       </c>
       <c r="M6">
-        <v>4.6</v>
+        <v>3.15</v>
       </c>
       <c r="N6">
-        <v>1.28</v>
+        <v>1.47</v>
       </c>
       <c r="O6">
-        <v>1.81</v>
+        <v>1.54</v>
       </c>
       <c r="P6">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="Q6">
-        <v>1000</v>
+        <v>1.88</v>
       </c>
       <c r="R6">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="S6">
-        <v>1000</v>
+        <v>2.28</v>
       </c>
       <c r="T6">
-        <v>1.49</v>
+        <v>5.5</v>
       </c>
       <c r="U6">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="V6">
-        <v>2.98</v>
+        <v>30</v>
       </c>
       <c r="W6">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="X6">
-        <v>2.9</v>
+        <v>5.8</v>
       </c>
       <c r="Y6">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="Z6">
-        <v>3.85</v>
+        <v>10</v>
       </c>
       <c r="AA6">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="AB6">
-        <v>2.4</v>
+        <v>11</v>
       </c>
       <c r="AC6">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AD6">
-        <v>2.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE6">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF6">
-        <v>5.6</v>
+        <v>29</v>
       </c>
       <c r="AG6">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AH6">
+        <v>5.8</v>
+      </c>
+      <c r="AI6">
+        <v>120</v>
+      </c>
+      <c r="AJ6">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AK6">
+        <v>10.5</v>
+      </c>
+      <c r="AL6">
+        <v>9.6</v>
+      </c>
+      <c r="AM6">
+        <v>10.5</v>
+      </c>
+      <c r="AN6">
+        <v>5.1</v>
+      </c>
+      <c r="AO6">
+        <v>23</v>
+      </c>
+      <c r="AP6">
+        <v>5.8</v>
+      </c>
+      <c r="AQ6">
+        <v>95</v>
+      </c>
+      <c r="AR6">
+        <v>11</v>
+      </c>
+      <c r="AS6">
+        <v>19</v>
+      </c>
+      <c r="AT6">
         <v>7.8</v>
       </c>
-      <c r="AI6">
-        <v>1000</v>
-      </c>
-      <c r="AJ6">
-        <v>1.01</v>
-      </c>
-      <c r="AK6">
-        <v>1000</v>
-      </c>
-      <c r="AL6">
-        <v>1.01</v>
-      </c>
-      <c r="AM6">
-        <v>1000</v>
-      </c>
-      <c r="AN6">
-        <v>4.5</v>
-      </c>
-      <c r="AO6">
-        <v>1000</v>
-      </c>
-      <c r="AP6">
-        <v>14</v>
-      </c>
-      <c r="AQ6">
-        <v>1000</v>
-      </c>
-      <c r="AR6">
-        <v>3.1</v>
-      </c>
-      <c r="AS6">
-        <v>1000</v>
-      </c>
-      <c r="AT6">
-        <v>1.01</v>
-      </c>
       <c r="AU6">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AV6">
-        <v>12.5</v>
+        <v>21</v>
       </c>
       <c r="AW6">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AX6">
-        <v>7.4</v>
+        <v>40</v>
       </c>
       <c r="AY6">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AZ6">
-        <v>1.01</v>
+        <v>3.6</v>
       </c>
       <c r="BA6">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="BB6">
-        <v>1.01</v>
+        <v>15</v>
       </c>
       <c r="BC6">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="BD6">
-        <v>26</v>
+        <v>6.4</v>
       </c>
       <c r="BE6">
         <v>1000</v>
       </c>
-      <c r="BF6" t="s">
-        <v>105</v>
+      <c r="BF6">
+        <v>33114877</v>
       </c>
       <c r="BG6">
         <v>1165</v>
@@ -1915,17 +1879,17 @@
       <c r="BI6">
         <v>58805</v>
       </c>
-      <c r="BJ6" t="s">
-        <v>109</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>113</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>117</v>
-      </c>
-      <c r="BM6" t="s">
-        <v>121</v>
+      <c r="BJ6">
+        <v>1.226310184</v>
+      </c>
+      <c r="BK6">
+        <v>1.226310187</v>
+      </c>
+      <c r="BL6">
+        <v>1.226310231</v>
+      </c>
+      <c r="BM6">
+        <v>1.226310232</v>
       </c>
     </row>
     <row r="7" spans="1:65">
@@ -1939,28 +1903,28 @@
         <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F7">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="G7">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H7">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="I7">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="J7">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K7">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="L7">
         <v>1.8</v>
@@ -1975,127 +1939,127 @@
         <v>2.26</v>
       </c>
       <c r="P7">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R7">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S7">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="T7">
-        <v>10.5</v>
+        <v>3.9</v>
       </c>
       <c r="U7">
         <v>14.5</v>
       </c>
       <c r="V7">
-        <v>8.6</v>
+        <v>3.6</v>
       </c>
       <c r="W7">
         <v>11.5</v>
       </c>
       <c r="X7">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="Y7">
         <v>17.5</v>
       </c>
       <c r="Z7">
-        <v>27</v>
+        <v>4.6</v>
       </c>
       <c r="AA7">
         <v>38</v>
       </c>
       <c r="AB7">
-        <v>10.5</v>
+        <v>3.85</v>
       </c>
       <c r="AC7">
         <v>14</v>
       </c>
       <c r="AD7">
-        <v>7.2</v>
+        <v>3.15</v>
       </c>
       <c r="AE7">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AF7">
-        <v>10</v>
+        <v>3.95</v>
       </c>
       <c r="AG7">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH7">
-        <v>23</v>
+        <v>4.5</v>
       </c>
       <c r="AI7">
         <v>34</v>
       </c>
       <c r="AJ7">
-        <v>20</v>
+        <v>4.4</v>
       </c>
       <c r="AK7">
         <v>27</v>
       </c>
       <c r="AL7">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AM7">
         <v>17.5</v>
       </c>
       <c r="AN7">
-        <v>17</v>
+        <v>4.3</v>
       </c>
       <c r="AO7">
         <v>24</v>
       </c>
       <c r="AP7">
-        <v>32</v>
+        <v>4.8</v>
       </c>
       <c r="AQ7">
         <v>55</v>
       </c>
       <c r="AR7">
-        <v>44</v>
+        <v>4.9</v>
       </c>
       <c r="AS7">
         <v>75</v>
       </c>
       <c r="AT7">
-        <v>30</v>
+        <v>4.8</v>
       </c>
       <c r="AU7">
         <v>50</v>
       </c>
       <c r="AV7">
-        <v>40</v>
+        <v>4.9</v>
       </c>
       <c r="AW7">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AX7">
-        <v>80</v>
+        <v>5.1</v>
       </c>
       <c r="AY7">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AZ7">
-        <v>1.01</v>
+        <v>4.7</v>
       </c>
       <c r="BA7">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="BB7">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="BC7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD7">
-        <v>21</v>
+        <v>5.4</v>
       </c>
       <c r="BE7">
         <v>1000</v>
@@ -2136,10 +2100,10 @@
         <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F8">
         <v>1.04</v>
@@ -2333,169 +2297,169 @@
         <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F9">
-        <v>1.04</v>
+        <v>2.06</v>
       </c>
       <c r="G9">
-        <v>1000</v>
+        <v>3.2</v>
       </c>
       <c r="H9">
-        <v>1.04</v>
+        <v>2.96</v>
       </c>
       <c r="I9">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
       <c r="J9">
-        <v>1.01</v>
+        <v>2.9</v>
       </c>
       <c r="K9">
-        <v>1000</v>
+        <v>4.9</v>
       </c>
       <c r="L9">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M9">
-        <v>1000</v>
+        <v>1.73</v>
       </c>
       <c r="N9">
-        <v>1.01</v>
+        <v>2.38</v>
       </c>
       <c r="O9">
-        <v>1000</v>
+        <v>3.25</v>
       </c>
       <c r="P9">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="Q9">
         <v>1000</v>
       </c>
       <c r="R9">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="S9">
         <v>1000</v>
       </c>
       <c r="T9">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="U9">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="V9">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="W9">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="X9">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="Y9">
         <v>1000</v>
       </c>
       <c r="Z9">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="AA9">
         <v>1000</v>
       </c>
       <c r="AB9">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="AC9">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD9">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="AE9">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF9">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="AG9">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH9">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="AI9">
         <v>1000</v>
       </c>
       <c r="AJ9">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="AK9">
         <v>1000</v>
       </c>
       <c r="AL9">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="AM9">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AN9">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="AO9">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AP9">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="AQ9">
         <v>1000</v>
       </c>
       <c r="AR9">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="AS9">
         <v>1000</v>
       </c>
       <c r="AT9">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="AU9">
         <v>1000</v>
       </c>
       <c r="AV9">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="AW9">
         <v>1000</v>
       </c>
       <c r="AX9">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="AY9">
         <v>1000</v>
       </c>
       <c r="AZ9">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="BA9">
         <v>1000</v>
       </c>
       <c r="BB9">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="BC9">
         <v>1000</v>
       </c>
       <c r="BD9">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="BE9">
         <v>1000</v>
       </c>
-      <c r="BF9" t="s">
-        <v>106</v>
+      <c r="BF9">
+        <v>33119269</v>
       </c>
       <c r="BG9">
         <v>7658015</v>
@@ -2506,22 +2470,22 @@
       <c r="BI9">
         <v>58805</v>
       </c>
-      <c r="BJ9" t="s">
-        <v>110</v>
-      </c>
-      <c r="BK9" t="s">
-        <v>114</v>
-      </c>
-      <c r="BL9" t="s">
-        <v>118</v>
-      </c>
-      <c r="BM9" t="s">
-        <v>122</v>
+      <c r="BJ9">
+        <v>1.226337095</v>
+      </c>
+      <c r="BK9">
+        <v>1.22633714</v>
+      </c>
+      <c r="BL9">
+        <v>1.226337179</v>
+      </c>
+      <c r="BM9">
+        <v>1.226337104</v>
       </c>
     </row>
     <row r="10" spans="1:65">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -2530,190 +2494,190 @@
         <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F10">
-        <v>1.78</v>
+        <v>2.48</v>
       </c>
       <c r="G10">
-        <v>1.88</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>4.9</v>
+        <v>2.82</v>
       </c>
       <c r="I10">
-        <v>6.4</v>
+        <v>3.45</v>
       </c>
       <c r="J10">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="K10">
+        <v>3.75</v>
+      </c>
+      <c r="L10">
+        <v>1.58</v>
+      </c>
+      <c r="M10">
+        <v>1.77</v>
+      </c>
+      <c r="N10">
+        <v>2.3</v>
+      </c>
+      <c r="O10">
+        <v>2.72</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+      <c r="Q10">
+        <v>2.24</v>
+      </c>
+      <c r="R10">
+        <v>1.8</v>
+      </c>
+      <c r="S10">
+        <v>2</v>
+      </c>
+      <c r="T10">
+        <v>3.45</v>
+      </c>
+      <c r="U10">
+        <v>11.5</v>
+      </c>
+      <c r="V10">
+        <v>3.45</v>
+      </c>
+      <c r="W10">
+        <v>12</v>
+      </c>
+      <c r="X10">
+        <v>4</v>
+      </c>
+      <c r="Y10">
+        <v>24</v>
+      </c>
+      <c r="Z10">
+        <v>3.6</v>
+      </c>
+      <c r="AA10">
+        <v>70</v>
+      </c>
+      <c r="AB10">
+        <v>3.3</v>
+      </c>
+      <c r="AC10">
+        <v>10.5</v>
+      </c>
+      <c r="AD10">
+        <v>3</v>
+      </c>
+      <c r="AE10">
+        <v>14</v>
+      </c>
+      <c r="AF10">
+        <v>3.8</v>
+      </c>
+      <c r="AG10">
+        <v>17</v>
+      </c>
+      <c r="AH10">
         <v>4.5</v>
       </c>
-      <c r="L10">
-        <v>1.85</v>
-      </c>
-      <c r="M10">
-        <v>2.14</v>
-      </c>
-      <c r="N10">
-        <v>1.88</v>
-      </c>
-      <c r="O10">
-        <v>2.18</v>
-      </c>
-      <c r="P10">
-        <v>1.83</v>
-      </c>
-      <c r="Q10">
-        <v>2.14</v>
-      </c>
-      <c r="R10">
-        <v>1.88</v>
-      </c>
-      <c r="S10">
-        <v>2.2</v>
-      </c>
-      <c r="T10">
-        <v>11</v>
-      </c>
-      <c r="U10">
-        <v>980</v>
-      </c>
-      <c r="V10">
-        <v>5.3</v>
-      </c>
-      <c r="W10">
-        <v>980</v>
-      </c>
-      <c r="X10">
-        <v>6</v>
-      </c>
-      <c r="Y10">
-        <v>46</v>
-      </c>
-      <c r="Z10">
-        <v>6.6</v>
-      </c>
-      <c r="AA10">
-        <v>150</v>
-      </c>
-      <c r="AB10">
-        <v>3.9</v>
-      </c>
-      <c r="AC10">
-        <v>980</v>
-      </c>
-      <c r="AD10">
-        <v>4.2</v>
-      </c>
-      <c r="AE10">
-        <v>980</v>
-      </c>
-      <c r="AF10">
-        <v>5.4</v>
-      </c>
-      <c r="AG10">
-        <v>980</v>
-      </c>
-      <c r="AH10">
-        <v>6.4</v>
-      </c>
       <c r="AI10">
+        <v>55</v>
+      </c>
+      <c r="AJ10">
+        <v>3.95</v>
+      </c>
+      <c r="AK10">
+        <v>20</v>
+      </c>
+      <c r="AL10">
+        <v>3.8</v>
+      </c>
+      <c r="AM10">
+        <v>16</v>
+      </c>
+      <c r="AN10">
+        <v>4.1</v>
+      </c>
+      <c r="AO10">
+        <v>26</v>
+      </c>
+      <c r="AP10">
+        <v>3.6</v>
+      </c>
+      <c r="AQ10">
         <v>80</v>
       </c>
-      <c r="AJ10">
-        <v>8.4</v>
-      </c>
-      <c r="AK10">
-        <v>11.5</v>
-      </c>
-      <c r="AL10">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AM10">
-        <v>11.5</v>
-      </c>
-      <c r="AN10">
-        <v>5.4</v>
-      </c>
-      <c r="AO10">
-        <v>980</v>
-      </c>
-      <c r="AP10">
-        <v>6.4</v>
-      </c>
-      <c r="AQ10">
-        <v>90</v>
-      </c>
       <c r="AR10">
-        <v>5.5</v>
+        <v>3.55</v>
       </c>
       <c r="AS10">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="AT10">
-        <v>5.2</v>
+        <v>4.4</v>
       </c>
       <c r="AU10">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="AV10">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="AW10">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AX10">
-        <v>6.6</v>
+        <v>4.8</v>
       </c>
       <c r="AY10">
         <v>1000</v>
       </c>
       <c r="AZ10">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="BA10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="BB10">
-        <v>6.4</v>
+        <v>3.5</v>
       </c>
       <c r="BC10">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="BD10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BE10">
         <v>1000</v>
       </c>
-      <c r="BF10">
-        <v>33116591</v>
+      <c r="BF10" t="s">
+        <v>106</v>
       </c>
       <c r="BG10">
-        <v>17583926</v>
+        <v>10939060</v>
       </c>
       <c r="BH10">
-        <v>13638535</v>
+        <v>8761113</v>
       </c>
       <c r="BI10">
         <v>58805</v>
       </c>
-      <c r="BJ10">
-        <v>1.226290831</v>
-      </c>
-      <c r="BK10">
-        <v>1.226290876</v>
-      </c>
-      <c r="BL10">
-        <v>0</v>
-      </c>
-      <c r="BM10">
-        <v>0</v>
+      <c r="BJ10" t="s">
+        <v>107</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>108</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:65">
@@ -2724,187 +2688,187 @@
         <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F11">
-        <v>6.2</v>
+        <v>1.73</v>
       </c>
       <c r="G11">
-        <v>7.8</v>
+        <v>1.88</v>
       </c>
       <c r="H11">
-        <v>1.55</v>
+        <v>4.9</v>
       </c>
       <c r="I11">
-        <v>1.62</v>
+        <v>6</v>
       </c>
       <c r="J11">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="K11">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="L11">
+        <v>1.84</v>
+      </c>
+      <c r="M11">
         <v>2.08</v>
       </c>
-      <c r="M11">
-        <v>2.24</v>
-      </c>
       <c r="N11">
-        <v>1.81</v>
+        <v>1.94</v>
       </c>
       <c r="O11">
-        <v>1.93</v>
+        <v>2.18</v>
       </c>
       <c r="P11">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Q11">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R11">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="S11">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="T11">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="U11">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="V11">
+        <v>5.7</v>
+      </c>
+      <c r="W11">
+        <v>980</v>
+      </c>
+      <c r="X11">
+        <v>6.8</v>
+      </c>
+      <c r="Y11">
+        <v>44</v>
+      </c>
+      <c r="Z11">
+        <v>7.6</v>
+      </c>
+      <c r="AA11">
+        <v>130</v>
+      </c>
+      <c r="AB11">
+        <v>4.2</v>
+      </c>
+      <c r="AC11">
+        <v>980</v>
+      </c>
+      <c r="AD11">
+        <v>4.6</v>
+      </c>
+      <c r="AE11">
+        <v>980</v>
+      </c>
+      <c r="AF11">
+        <v>5.9</v>
+      </c>
+      <c r="AG11">
+        <v>980</v>
+      </c>
+      <c r="AH11">
         <v>7.2</v>
       </c>
-      <c r="W11">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="X11">
+      <c r="AI11">
+        <v>75</v>
+      </c>
+      <c r="AJ11">
+        <v>8.4</v>
+      </c>
+      <c r="AK11">
+        <v>11.5</v>
+      </c>
+      <c r="AL11">
         <v>8.199999999999999</v>
       </c>
-      <c r="Y11">
-        <v>10.5</v>
-      </c>
-      <c r="Z11">
+      <c r="AM11">
+        <v>980</v>
+      </c>
+      <c r="AN11">
+        <v>5.9</v>
+      </c>
+      <c r="AO11">
+        <v>980</v>
+      </c>
+      <c r="AP11">
+        <v>7.2</v>
+      </c>
+      <c r="AQ11">
+        <v>85</v>
+      </c>
+      <c r="AR11">
+        <v>6</v>
+      </c>
+      <c r="AS11">
+        <v>20</v>
+      </c>
+      <c r="AT11">
+        <v>5.8</v>
+      </c>
+      <c r="AU11">
+        <v>21</v>
+      </c>
+      <c r="AV11">
+        <v>6.6</v>
+      </c>
+      <c r="AW11">
+        <v>42</v>
+      </c>
+      <c r="AX11">
+        <v>7.6</v>
+      </c>
+      <c r="AY11">
+        <v>1000</v>
+      </c>
+      <c r="AZ11">
+        <v>4.9</v>
+      </c>
+      <c r="BA11">
         <v>13</v>
       </c>
-      <c r="AA11">
-        <v>16.5</v>
-      </c>
-      <c r="AB11">
-        <v>20</v>
-      </c>
-      <c r="AC11">
-        <v>25</v>
-      </c>
-      <c r="AD11">
-        <v>9</v>
-      </c>
-      <c r="AE11">
-        <v>11.5</v>
-      </c>
-      <c r="AF11">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AG11">
-        <v>11</v>
-      </c>
-      <c r="AH11">
-        <v>13.5</v>
-      </c>
-      <c r="AI11">
-        <v>18</v>
-      </c>
-      <c r="AJ11">
-        <v>42</v>
-      </c>
-      <c r="AK11">
-        <v>60</v>
-      </c>
-      <c r="AL11">
-        <v>22</v>
-      </c>
-      <c r="AM11">
-        <v>28</v>
-      </c>
-      <c r="AN11">
-        <v>19</v>
-      </c>
-      <c r="AO11">
-        <v>26</v>
-      </c>
-      <c r="AP11">
-        <v>28</v>
-      </c>
-      <c r="AQ11">
-        <v>40</v>
-      </c>
-      <c r="AR11">
+      <c r="BB11">
+        <v>7.2</v>
+      </c>
+      <c r="BC11">
+        <v>85</v>
+      </c>
+      <c r="BD11">
         <v>4.2</v>
       </c>
-      <c r="AS11">
-        <v>1000</v>
-      </c>
-      <c r="AT11">
-        <v>4</v>
-      </c>
-      <c r="AU11">
-        <v>100</v>
-      </c>
-      <c r="AV11">
-        <v>14</v>
-      </c>
-      <c r="AW11">
-        <v>100</v>
-      </c>
-      <c r="AX11">
-        <v>13.5</v>
-      </c>
-      <c r="AY11">
-        <v>140</v>
-      </c>
-      <c r="AZ11">
-        <v>1.01</v>
-      </c>
-      <c r="BA11">
-        <v>120</v>
-      </c>
-      <c r="BB11">
-        <v>1.01</v>
-      </c>
-      <c r="BC11">
-        <v>9</v>
-      </c>
-      <c r="BD11">
-        <v>40</v>
-      </c>
       <c r="BE11">
         <v>1000</v>
       </c>
       <c r="BF11">
-        <v>33115767</v>
+        <v>33116591</v>
       </c>
       <c r="BG11">
-        <v>44232344</v>
+        <v>17583926</v>
       </c>
       <c r="BH11">
-        <v>474678</v>
+        <v>13638535</v>
       </c>
       <c r="BI11">
         <v>58805</v>
       </c>
       <c r="BJ11">
-        <v>1.226269686</v>
+        <v>1.226290831</v>
       </c>
       <c r="BK11">
-        <v>1.226269731</v>
+        <v>1.226290876</v>
       </c>
       <c r="BL11">
         <v>0</v>
@@ -2915,7 +2879,7 @@
     </row>
     <row r="12" spans="1:65">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
@@ -2924,189 +2888,386 @@
         <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>7.8</v>
+      </c>
+      <c r="H12">
+        <v>1.54</v>
+      </c>
+      <c r="I12">
+        <v>1.58</v>
+      </c>
+      <c r="J12">
+        <v>4.5</v>
+      </c>
+      <c r="K12">
+        <v>5.2</v>
+      </c>
+      <c r="L12">
+        <v>2.2</v>
+      </c>
+      <c r="M12">
+        <v>2.38</v>
+      </c>
+      <c r="N12">
+        <v>1.73</v>
+      </c>
+      <c r="O12">
+        <v>1.83</v>
+      </c>
+      <c r="P12">
+        <v>1.86</v>
+      </c>
+      <c r="Q12">
         <v>1.99</v>
       </c>
-      <c r="G12">
-        <v>2.06</v>
-      </c>
-      <c r="H12">
-        <v>4.5</v>
-      </c>
-      <c r="I12">
-        <v>5.3</v>
-      </c>
-      <c r="J12">
-        <v>3.3</v>
-      </c>
-      <c r="K12">
-        <v>3.55</v>
-      </c>
-      <c r="L12">
-        <v>1.59</v>
-      </c>
-      <c r="M12">
-        <v>1.74</v>
-      </c>
-      <c r="N12">
-        <v>2.36</v>
-      </c>
-      <c r="O12">
-        <v>2.68</v>
-      </c>
-      <c r="P12">
+      <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>2.16</v>
+      </c>
+      <c r="T12">
+        <v>6</v>
+      </c>
+      <c r="U12">
+        <v>22</v>
+      </c>
+      <c r="V12">
+        <v>4.7</v>
+      </c>
+      <c r="W12">
+        <v>9.6</v>
+      </c>
+      <c r="X12">
+        <v>4.7</v>
+      </c>
+      <c r="Y12">
+        <v>10.5</v>
+      </c>
+      <c r="Z12">
+        <v>5.8</v>
+      </c>
+      <c r="AA12">
+        <v>16</v>
+      </c>
+      <c r="AB12">
+        <v>6.8</v>
+      </c>
+      <c r="AC12">
+        <v>27</v>
+      </c>
+      <c r="AD12">
+        <v>5</v>
+      </c>
+      <c r="AE12">
+        <v>11</v>
+      </c>
+      <c r="AF12">
+        <v>4.9</v>
+      </c>
+      <c r="AG12">
+        <v>10.5</v>
+      </c>
+      <c r="AH12">
+        <v>6</v>
+      </c>
+      <c r="AI12">
+        <v>17.5</v>
+      </c>
+      <c r="AJ12">
         <v>2.14</v>
       </c>
-      <c r="Q12">
-        <v>2.3</v>
-      </c>
-      <c r="R12">
-        <v>1.77</v>
-      </c>
-      <c r="S12">
-        <v>1.88</v>
-      </c>
-      <c r="T12">
-        <v>8.6</v>
-      </c>
-      <c r="U12">
-        <v>9.6</v>
-      </c>
-      <c r="V12">
-        <v>11.5</v>
-      </c>
-      <c r="W12">
-        <v>13.5</v>
-      </c>
-      <c r="X12">
-        <v>29</v>
-      </c>
-      <c r="Y12">
-        <v>34</v>
-      </c>
-      <c r="Z12">
-        <v>13.5</v>
-      </c>
-      <c r="AA12">
-        <v>980</v>
-      </c>
-      <c r="AB12">
+      <c r="AK12">
+        <v>65</v>
+      </c>
+      <c r="AL12">
         <v>6.4</v>
       </c>
-      <c r="AC12">
-        <v>7.2</v>
-      </c>
-      <c r="AD12">
-        <v>7.2</v>
-      </c>
-      <c r="AE12">
-        <v>8</v>
-      </c>
-      <c r="AF12">
-        <v>17.5</v>
-      </c>
-      <c r="AG12">
-        <v>20</v>
-      </c>
-      <c r="AH12">
-        <v>13.5</v>
-      </c>
-      <c r="AI12">
-        <v>980</v>
-      </c>
-      <c r="AJ12">
-        <v>9.6</v>
-      </c>
-      <c r="AK12">
-        <v>10.5</v>
-      </c>
-      <c r="AL12">
-        <v>10</v>
-      </c>
       <c r="AM12">
-        <v>11.5</v>
+        <v>28</v>
       </c>
       <c r="AN12">
-        <v>22</v>
+        <v>6.4</v>
       </c>
       <c r="AO12">
         <v>26</v>
       </c>
       <c r="AP12">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AQ12">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AR12">
-        <v>20</v>
+        <v>4.4</v>
       </c>
       <c r="AS12">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AT12">
-        <v>22</v>
+        <v>2.16</v>
       </c>
       <c r="AU12">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="AV12">
-        <v>11.5</v>
+        <v>2.16</v>
       </c>
       <c r="AW12">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="AX12">
-        <v>13.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AY12">
-        <v>580</v>
+        <v>130</v>
       </c>
       <c r="AZ12">
-        <v>14.5</v>
+        <v>2.16</v>
       </c>
       <c r="BA12">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="BB12">
-        <v>13.5</v>
+        <v>4.1</v>
       </c>
       <c r="BC12">
-        <v>980</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BD12">
-        <v>15</v>
+        <v>2.2</v>
       </c>
       <c r="BE12">
         <v>1000</v>
       </c>
       <c r="BF12">
-        <v>33100571</v>
+        <v>33115767</v>
       </c>
       <c r="BG12">
-        <v>453739</v>
+        <v>44232344</v>
       </c>
       <c r="BH12">
-        <v>220949</v>
+        <v>474678</v>
       </c>
       <c r="BI12">
         <v>58805</v>
       </c>
       <c r="BJ12">
-        <v>1.22605604</v>
+        <v>1.226269686</v>
       </c>
       <c r="BK12">
-        <v>1.22605605</v>
+        <v>1.226269731</v>
       </c>
       <c r="BL12">
         <v>0</v>
       </c>
       <c r="BM12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:65">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13">
+        <v>1.95</v>
+      </c>
+      <c r="G13">
+        <v>2.02</v>
+      </c>
+      <c r="H13">
+        <v>4.6</v>
+      </c>
+      <c r="I13">
+        <v>5.1</v>
+      </c>
+      <c r="J13">
+        <v>3.3</v>
+      </c>
+      <c r="K13">
+        <v>3.6</v>
+      </c>
+      <c r="L13">
+        <v>1.56</v>
+      </c>
+      <c r="M13">
+        <v>1.71</v>
+      </c>
+      <c r="N13">
+        <v>2.42</v>
+      </c>
+      <c r="O13">
+        <v>2.76</v>
+      </c>
+      <c r="P13">
+        <v>2.2</v>
+      </c>
+      <c r="Q13">
+        <v>2.36</v>
+      </c>
+      <c r="R13">
+        <v>1.73</v>
+      </c>
+      <c r="S13">
+        <v>1.84</v>
+      </c>
+      <c r="T13">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="U13">
+        <v>9.4</v>
+      </c>
+      <c r="V13">
+        <v>11.5</v>
+      </c>
+      <c r="W13">
+        <v>13</v>
+      </c>
+      <c r="X13">
+        <v>29</v>
+      </c>
+      <c r="Y13">
+        <v>34</v>
+      </c>
+      <c r="Z13">
+        <v>13</v>
+      </c>
+      <c r="AA13">
+        <v>140</v>
+      </c>
+      <c r="AB13">
+        <v>6.2</v>
+      </c>
+      <c r="AC13">
+        <v>7</v>
+      </c>
+      <c r="AD13">
+        <v>7.2</v>
+      </c>
+      <c r="AE13">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AF13">
+        <v>18.5</v>
+      </c>
+      <c r="AG13">
+        <v>21</v>
+      </c>
+      <c r="AH13">
+        <v>12.5</v>
+      </c>
+      <c r="AI13">
+        <v>980</v>
+      </c>
+      <c r="AJ13">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AK13">
+        <v>10.5</v>
+      </c>
+      <c r="AL13">
+        <v>10</v>
+      </c>
+      <c r="AM13">
+        <v>11.5</v>
+      </c>
+      <c r="AN13">
+        <v>9.6</v>
+      </c>
+      <c r="AO13">
+        <v>28</v>
+      </c>
+      <c r="AP13">
+        <v>12.5</v>
+      </c>
+      <c r="AQ13">
+        <v>120</v>
+      </c>
+      <c r="AR13">
+        <v>19.5</v>
+      </c>
+      <c r="AS13">
+        <v>23</v>
+      </c>
+      <c r="AT13">
+        <v>22</v>
+      </c>
+      <c r="AU13">
+        <v>26</v>
+      </c>
+      <c r="AV13">
+        <v>34</v>
+      </c>
+      <c r="AW13">
+        <v>980</v>
+      </c>
+      <c r="AX13">
+        <v>13.5</v>
+      </c>
+      <c r="AY13">
+        <v>980</v>
+      </c>
+      <c r="AZ13">
+        <v>15</v>
+      </c>
+      <c r="BA13">
+        <v>21</v>
+      </c>
+      <c r="BB13">
+        <v>13</v>
+      </c>
+      <c r="BC13">
+        <v>980</v>
+      </c>
+      <c r="BD13">
+        <v>14.5</v>
+      </c>
+      <c r="BE13">
+        <v>1000</v>
+      </c>
+      <c r="BF13">
+        <v>33100571</v>
+      </c>
+      <c r="BG13">
+        <v>453739</v>
+      </c>
+      <c r="BH13">
+        <v>220949</v>
+      </c>
+      <c r="BI13">
+        <v>58805</v>
+      </c>
+      <c r="BJ13">
+        <v>1.22605604</v>
+      </c>
+      <c r="BK13">
+        <v>1.22605605</v>
+      </c>
+      <c r="BL13">
+        <v>0</v>
+      </c>
+      <c r="BM13">
         <v>1.226056049</v>
       </c>
     </row>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-19.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="107">
   <si>
     <t>League</t>
   </si>
@@ -250,18 +250,21 @@
     <t>18:30:00</t>
   </si>
   <si>
+    <t>18:45:00</t>
+  </si>
+  <si>
     <t>19:00:00</t>
   </si>
   <si>
-    <t>20:00:00</t>
-  </si>
-  <si>
     <t>21:00:00</t>
   </si>
   <si>
     <t>21:15:00</t>
   </si>
   <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
     <t>LR Vicenza Virtus</t>
   </si>
   <si>
@@ -280,24 +283,24 @@
     <t>Cumbaya FC</t>
   </si>
   <si>
+    <t>Deportivo La Guaira</t>
+  </si>
+  <si>
     <t>Deportivo Maldonado</t>
   </si>
   <si>
-    <t>Deportivo La Guaira</t>
+    <t>Orense Sporting Club</t>
+  </si>
+  <si>
+    <t>Libertad FC</t>
+  </si>
+  <si>
+    <t>Argentinos Juniors</t>
   </si>
   <si>
     <t>Portuguesa FC</t>
   </si>
   <si>
-    <t>Orense Sporting Club</t>
-  </si>
-  <si>
-    <t>Libertad FC</t>
-  </si>
-  <si>
-    <t>Argentinos Juniors</t>
-  </si>
-  <si>
     <t>Fiorenzuola</t>
   </si>
   <si>
@@ -316,37 +319,22 @@
     <t>Mushuc Runa</t>
   </si>
   <si>
+    <t>Carabobo FC</t>
+  </si>
+  <si>
     <t>Defensor Sporting</t>
   </si>
   <si>
-    <t>Carabobo FC</t>
+    <t>Imbabura Sporting Club</t>
+  </si>
+  <si>
+    <t>LDU</t>
+  </si>
+  <si>
+    <t>Rosario Central</t>
   </si>
   <si>
     <t>Metropolitanos</t>
-  </si>
-  <si>
-    <t>Imbabura Sporting Club</t>
-  </si>
-  <si>
-    <t>LDU</t>
-  </si>
-  <si>
-    <t>Rosario Central</t>
-  </si>
-  <si>
-    <t>33119483</t>
-  </si>
-  <si>
-    <t>1.226338669</t>
-  </si>
-  <si>
-    <t>1.226338714</t>
-  </si>
-  <si>
-    <t>1.226338753</t>
-  </si>
-  <si>
-    <t>1.226338678</t>
   </si>
 </sst>
 </file>
@@ -918,16 +906,16 @@
         <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F2">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="G2">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="H2">
         <v>13</v>
@@ -936,97 +924,97 @@
         <v>18</v>
       </c>
       <c r="J2">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="K2">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="L2">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="M2">
         <v>2.24</v>
       </c>
       <c r="N2">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="O2">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="P2">
         <v>2.46</v>
       </c>
       <c r="Q2">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="R2">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S2">
         <v>1.68</v>
       </c>
       <c r="T2">
-        <v>13.5</v>
+        <v>7.2</v>
       </c>
       <c r="U2">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="V2">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="W2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="X2">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="Y2">
         <v>160</v>
       </c>
       <c r="Z2">
-        <v>7.6</v>
+        <v>4.8</v>
       </c>
       <c r="AA2">
         <v>1000</v>
       </c>
       <c r="AB2">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="AC2">
         <v>7.8</v>
       </c>
       <c r="AD2">
-        <v>11</v>
+        <v>6.6</v>
       </c>
       <c r="AE2">
         <v>15</v>
       </c>
       <c r="AF2">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AG2">
         <v>65</v>
       </c>
       <c r="AH2">
-        <v>10</v>
+        <v>4.8</v>
       </c>
       <c r="AI2">
         <v>1000</v>
       </c>
       <c r="AJ2">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AK2">
         <v>7.2</v>
       </c>
       <c r="AL2">
-        <v>9.199999999999999</v>
+        <v>5.8</v>
       </c>
       <c r="AM2">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AN2">
-        <v>8.4</v>
+        <v>4.4</v>
       </c>
       <c r="AO2">
         <v>50</v>
@@ -1038,34 +1026,34 @@
         <v>1000</v>
       </c>
       <c r="AR2">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AS2">
         <v>9.4</v>
       </c>
       <c r="AT2">
-        <v>13</v>
+        <v>6.6</v>
       </c>
       <c r="AU2">
         <v>17.5</v>
       </c>
       <c r="AV2">
-        <v>8.800000000000001</v>
+        <v>4.6</v>
       </c>
       <c r="AW2">
         <v>60</v>
       </c>
       <c r="AX2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY2">
         <v>1000</v>
       </c>
       <c r="AZ2">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="BA2">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="BB2">
         <v>15</v>
@@ -1074,7 +1062,7 @@
         <v>1000</v>
       </c>
       <c r="BD2">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="BE2">
         <v>1000</v>
@@ -1115,31 +1103,31 @@
         <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F3">
-        <v>2.5</v>
+        <v>2.78</v>
       </c>
       <c r="G3">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="H3">
-        <v>2.76</v>
+        <v>2.52</v>
       </c>
       <c r="I3">
-        <v>3.3</v>
+        <v>2.94</v>
       </c>
       <c r="J3">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="K3">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L3">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="M3">
         <v>1.84</v>
@@ -1148,130 +1136,130 @@
         <v>2.2</v>
       </c>
       <c r="O3">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="P3">
+        <v>1.87</v>
+      </c>
+      <c r="Q3">
+        <v>2.16</v>
+      </c>
+      <c r="R3">
         <v>1.86</v>
-      </c>
-      <c r="Q3">
-        <v>2.18</v>
-      </c>
-      <c r="R3">
-        <v>1.85</v>
       </c>
       <c r="S3">
         <v>2.16</v>
       </c>
       <c r="T3">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="U3">
         <v>12</v>
       </c>
       <c r="V3">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="W3">
         <v>12</v>
       </c>
       <c r="X3">
-        <v>3.95</v>
+        <v>4.9</v>
       </c>
       <c r="Y3">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Z3">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="AA3">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AB3">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="AC3">
         <v>11.5</v>
       </c>
       <c r="AD3">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="AE3">
         <v>14</v>
       </c>
       <c r="AF3">
+        <v>4.2</v>
+      </c>
+      <c r="AG3">
+        <v>15</v>
+      </c>
+      <c r="AH3">
         <v>3.9</v>
       </c>
-      <c r="AG3">
-        <v>17</v>
-      </c>
-      <c r="AH3">
-        <v>3.65</v>
-      </c>
       <c r="AI3">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AJ3">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AK3">
         <v>19.5</v>
       </c>
       <c r="AL3">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="AM3">
         <v>15.5</v>
       </c>
       <c r="AN3">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="AO3">
         <v>25</v>
       </c>
       <c r="AP3">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="AQ3">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AR3">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="AS3">
         <v>50</v>
       </c>
       <c r="AT3">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="AU3">
         <v>42</v>
       </c>
       <c r="AV3">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="AW3">
         <v>65</v>
       </c>
       <c r="AX3">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
       <c r="AY3">
         <v>1000</v>
       </c>
       <c r="AZ3">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="BA3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="BB3">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="BC3">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="BD3">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="BE3">
         <v>1000</v>
@@ -1312,31 +1300,31 @@
         <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F4">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="H4">
+        <v>4.2</v>
+      </c>
+      <c r="I4">
+        <v>4.3</v>
+      </c>
+      <c r="J4">
+        <v>3.95</v>
+      </c>
+      <c r="K4">
         <v>4.1</v>
       </c>
-      <c r="I4">
-        <v>4.2</v>
-      </c>
-      <c r="J4">
-        <v>3.9</v>
-      </c>
-      <c r="K4">
-        <v>4</v>
-      </c>
       <c r="L4">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="M4">
         <v>2.46</v>
@@ -1345,73 +1333,73 @@
         <v>1.69</v>
       </c>
       <c r="O4">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="P4">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="Q4">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="R4">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="S4">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="T4">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="U4">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="V4">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="W4">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Z4">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA4">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AB4">
         <v>11</v>
       </c>
       <c r="AC4">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD4">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AE4">
         <v>9.199999999999999</v>
       </c>
       <c r="AF4">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG4">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AH4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AI4">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AJ4">
         <v>12</v>
       </c>
       <c r="AK4">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AL4">
         <v>10</v>
@@ -1420,52 +1408,52 @@
         <v>10.5</v>
       </c>
       <c r="AN4">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AO4">
         <v>16.5</v>
       </c>
       <c r="AP4">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AQ4">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AR4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS4">
         <v>23</v>
       </c>
       <c r="AT4">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AU4">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AV4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AX4">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AY4">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AZ4">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BA4">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="BB4">
-        <v>11.5</v>
+        <v>30</v>
       </c>
       <c r="BC4">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="BD4">
         <v>15</v>
@@ -1509,88 +1497,88 @@
         <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F5">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="G5">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H5">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="I5">
         <v>1.99</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K5">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L5">
         <v>2.28</v>
       </c>
       <c r="M5">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="N5">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="O5">
         <v>1.78</v>
       </c>
       <c r="P5">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q5">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R5">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="S5">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="T5">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="U5">
         <v>19.5</v>
       </c>
       <c r="V5">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="W5">
+        <v>14</v>
+      </c>
+      <c r="X5">
         <v>12</v>
       </c>
-      <c r="X5">
-        <v>11.5</v>
-      </c>
       <c r="Y5">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z5">
         <v>20</v>
       </c>
       <c r="AA5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB5">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AD5">
-        <v>5.9</v>
+        <v>7.4</v>
       </c>
       <c r="AE5">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AF5">
         <v>10</v>
@@ -1620,28 +1608,28 @@
         <v>15</v>
       </c>
       <c r="AO5">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AP5">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AQ5">
-        <v>32</v>
+        <v>990</v>
       </c>
       <c r="AR5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AS5">
         <v>85</v>
       </c>
       <c r="AT5">
-        <v>9</v>
+        <v>13.5</v>
       </c>
       <c r="AU5">
         <v>44</v>
       </c>
       <c r="AV5">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AW5">
         <v>48</v>
@@ -1653,19 +1641,19 @@
         <v>80</v>
       </c>
       <c r="AZ5">
-        <v>24</v>
+        <v>10.5</v>
       </c>
       <c r="BA5">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="BB5">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="BC5">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="BD5">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="BE5">
         <v>850</v>
@@ -1706,25 +1694,25 @@
         <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F6">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="G6">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="H6">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="J6">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="K6">
         <v>6.4</v>
@@ -1733,61 +1721,61 @@
         <v>2.88</v>
       </c>
       <c r="M6">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="N6">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="O6">
         <v>1.54</v>
       </c>
       <c r="P6">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Q6">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R6">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="S6">
         <v>2.28</v>
       </c>
       <c r="T6">
+        <v>22</v>
+      </c>
+      <c r="U6">
+        <v>30</v>
+      </c>
+      <c r="V6">
+        <v>17.5</v>
+      </c>
+      <c r="W6">
+        <v>40</v>
+      </c>
+      <c r="X6">
         <v>5.5</v>
       </c>
-      <c r="U6">
-        <v>32</v>
-      </c>
-      <c r="V6">
-        <v>30</v>
-      </c>
-      <c r="W6">
-        <v>50</v>
-      </c>
-      <c r="X6">
-        <v>5.8</v>
-      </c>
       <c r="Y6">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="Z6">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="AA6">
-        <v>360</v>
+        <v>1000</v>
       </c>
       <c r="AB6">
-        <v>11</v>
+        <v>7.8</v>
       </c>
       <c r="AC6">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="AD6">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="AE6">
-        <v>75</v>
+        <v>13.5</v>
       </c>
       <c r="AF6">
         <v>29</v>
@@ -1796,13 +1784,13 @@
         <v>34</v>
       </c>
       <c r="AH6">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="AI6">
         <v>120</v>
       </c>
       <c r="AJ6">
-        <v>8.800000000000001</v>
+        <v>7</v>
       </c>
       <c r="AK6">
         <v>10.5</v>
@@ -1814,25 +1802,25 @@
         <v>10.5</v>
       </c>
       <c r="AN6">
-        <v>5.1</v>
+        <v>19</v>
       </c>
       <c r="AO6">
         <v>23</v>
       </c>
       <c r="AP6">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="AQ6">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AR6">
         <v>11</v>
       </c>
       <c r="AS6">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AT6">
-        <v>7.8</v>
+        <v>10</v>
       </c>
       <c r="AU6">
         <v>13</v>
@@ -1847,22 +1835,22 @@
         <v>40</v>
       </c>
       <c r="AY6">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="AZ6">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="BA6">
         <v>4.4</v>
       </c>
       <c r="BB6">
+        <v>17.5</v>
+      </c>
+      <c r="BC6">
+        <v>95</v>
+      </c>
+      <c r="BD6">
         <v>15</v>
-      </c>
-      <c r="BC6">
-        <v>100</v>
-      </c>
-      <c r="BD6">
-        <v>6.4</v>
       </c>
       <c r="BE6">
         <v>1000</v>
@@ -1903,10 +1891,10 @@
         <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F7">
         <v>3.3</v>
@@ -1918,70 +1906,70 @@
         <v>2.36</v>
       </c>
       <c r="I7">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="J7">
         <v>3.4</v>
       </c>
       <c r="K7">
+        <v>3.6</v>
+      </c>
+      <c r="L7">
+        <v>1.83</v>
+      </c>
+      <c r="M7">
+        <v>1.91</v>
+      </c>
+      <c r="N7">
+        <v>2.08</v>
+      </c>
+      <c r="O7">
+        <v>2.22</v>
+      </c>
+      <c r="P7">
+        <v>1.85</v>
+      </c>
+      <c r="Q7">
+        <v>1.96</v>
+      </c>
+      <c r="R7">
+        <v>2.04</v>
+      </c>
+      <c r="S7">
+        <v>2.18</v>
+      </c>
+      <c r="T7">
         <v>3.65</v>
       </c>
-      <c r="L7">
-        <v>1.8</v>
-      </c>
-      <c r="M7">
-        <v>1.9</v>
-      </c>
-      <c r="N7">
-        <v>2.12</v>
-      </c>
-      <c r="O7">
-        <v>2.26</v>
-      </c>
-      <c r="P7">
-        <v>1.88</v>
-      </c>
-      <c r="Q7">
-        <v>1.98</v>
-      </c>
-      <c r="R7">
-        <v>2.02</v>
-      </c>
-      <c r="S7">
-        <v>2.14</v>
-      </c>
-      <c r="T7">
-        <v>3.9</v>
-      </c>
       <c r="U7">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="V7">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="W7">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="X7">
+        <v>4.1</v>
+      </c>
+      <c r="Y7">
+        <v>18</v>
+      </c>
+      <c r="Z7">
+        <v>5</v>
+      </c>
+      <c r="AA7">
+        <v>42</v>
+      </c>
+      <c r="AB7">
         <v>4</v>
-      </c>
-      <c r="Y7">
-        <v>17.5</v>
-      </c>
-      <c r="Z7">
-        <v>4.6</v>
-      </c>
-      <c r="AA7">
-        <v>38</v>
-      </c>
-      <c r="AB7">
-        <v>3.85</v>
       </c>
       <c r="AC7">
         <v>14</v>
       </c>
       <c r="AD7">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="AE7">
         <v>14</v>
@@ -1990,22 +1978,22 @@
         <v>3.95</v>
       </c>
       <c r="AG7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH7">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AI7">
         <v>34</v>
       </c>
       <c r="AJ7">
-        <v>4.4</v>
+        <v>16</v>
       </c>
       <c r="AK7">
         <v>27</v>
       </c>
       <c r="AL7">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AM7">
         <v>17.5</v>
@@ -2014,10 +2002,10 @@
         <v>4.3</v>
       </c>
       <c r="AO7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP7">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AQ7">
         <v>55</v>
@@ -2032,7 +2020,7 @@
         <v>4.8</v>
       </c>
       <c r="AU7">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AV7">
         <v>4.9</v>
@@ -2041,10 +2029,10 @@
         <v>65</v>
       </c>
       <c r="AX7">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AY7">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AZ7">
         <v>4.7</v>
@@ -2053,13 +2041,13 @@
         <v>48</v>
       </c>
       <c r="BB7">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BC7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD7">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="BE7">
         <v>1000</v>
@@ -2091,7 +2079,7 @@
     </row>
     <row r="8" spans="1:65">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -2100,252 +2088,252 @@
         <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F8">
-        <v>1.04</v>
+        <v>1.76</v>
       </c>
       <c r="G8">
-        <v>980</v>
+        <v>1.99</v>
       </c>
       <c r="H8">
-        <v>1.84</v>
+        <v>4.7</v>
       </c>
       <c r="I8">
-        <v>2.42</v>
+        <v>5.9</v>
       </c>
       <c r="J8">
-        <v>2.96</v>
+        <v>3.35</v>
       </c>
       <c r="K8">
-        <v>950</v>
+        <v>4.1</v>
       </c>
       <c r="L8">
-        <v>1.52</v>
+        <v>1.75</v>
       </c>
       <c r="M8">
-        <v>2.7</v>
+        <v>2.02</v>
       </c>
       <c r="N8">
-        <v>1.59</v>
+        <v>1.99</v>
       </c>
       <c r="O8">
-        <v>3.95</v>
+        <v>2.34</v>
       </c>
       <c r="P8">
-        <v>1.5</v>
+        <v>1.94</v>
       </c>
       <c r="Q8">
-        <v>2.62</v>
+        <v>2.26</v>
       </c>
       <c r="R8">
-        <v>1.63</v>
+        <v>1.8</v>
       </c>
       <c r="S8">
-        <v>3</v>
+        <v>2.06</v>
       </c>
       <c r="T8">
-        <v>1.43</v>
+        <v>4.7</v>
       </c>
       <c r="U8">
         <v>980</v>
       </c>
       <c r="V8">
-        <v>1.1</v>
+        <v>4.3</v>
       </c>
       <c r="W8">
         <v>980</v>
       </c>
       <c r="X8">
-        <v>1.1</v>
+        <v>1.57</v>
       </c>
       <c r="Y8">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="Z8">
-        <v>1.1</v>
+        <v>1.56</v>
       </c>
       <c r="AA8">
         <v>1000</v>
       </c>
       <c r="AB8">
-        <v>1.1</v>
+        <v>7.2</v>
       </c>
       <c r="AC8">
         <v>980</v>
       </c>
       <c r="AD8">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="AE8">
         <v>980</v>
       </c>
       <c r="AF8">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="AG8">
         <v>980</v>
       </c>
       <c r="AH8">
-        <v>1.1</v>
+        <v>1.53</v>
       </c>
       <c r="AI8">
         <v>1000</v>
       </c>
       <c r="AJ8">
-        <v>1.1</v>
+        <v>4.9</v>
       </c>
       <c r="AK8">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AL8">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="AM8">
         <v>980</v>
       </c>
       <c r="AN8">
-        <v>1.1</v>
+        <v>1.79</v>
       </c>
       <c r="AO8">
         <v>980</v>
       </c>
       <c r="AP8">
-        <v>1.1</v>
+        <v>1.53</v>
       </c>
       <c r="AQ8">
         <v>1000</v>
       </c>
       <c r="AR8">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="AS8">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AT8">
-        <v>1.1</v>
+        <v>2.84</v>
       </c>
       <c r="AU8">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AV8">
-        <v>1.1</v>
+        <v>1.53</v>
       </c>
       <c r="AW8">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AX8">
-        <v>1.1</v>
+        <v>7.8</v>
       </c>
       <c r="AY8">
         <v>1000</v>
       </c>
       <c r="AZ8">
-        <v>1.1</v>
+        <v>1.59</v>
       </c>
       <c r="BA8">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="BB8">
-        <v>1.1</v>
+        <v>1.56</v>
       </c>
       <c r="BC8">
         <v>1000</v>
       </c>
       <c r="BD8">
-        <v>1.1</v>
+        <v>7.8</v>
       </c>
       <c r="BE8">
         <v>1000</v>
       </c>
       <c r="BF8">
-        <v>33100630</v>
+        <v>33119269</v>
       </c>
       <c r="BG8">
-        <v>10932747</v>
+        <v>7658015</v>
       </c>
       <c r="BH8">
-        <v>1222679</v>
+        <v>893607</v>
       </c>
       <c r="BI8">
         <v>58805</v>
       </c>
       <c r="BJ8">
-        <v>1.226061147</v>
+        <v>1.226337095</v>
       </c>
       <c r="BK8">
-        <v>1.226061192</v>
+        <v>1.22633714</v>
       </c>
       <c r="BL8">
-        <v>0</v>
+        <v>1.226337179</v>
       </c>
       <c r="BM8">
-        <v>0</v>
+        <v>1.226337104</v>
       </c>
     </row>
     <row r="9" spans="1:65">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F9">
-        <v>2.06</v>
+        <v>1.04</v>
       </c>
       <c r="G9">
-        <v>3.2</v>
+        <v>980</v>
       </c>
       <c r="H9">
+        <v>1.84</v>
+      </c>
+      <c r="I9">
+        <v>2.42</v>
+      </c>
+      <c r="J9">
         <v>2.96</v>
       </c>
-      <c r="I9">
-        <v>5.9</v>
-      </c>
-      <c r="J9">
-        <v>2.9</v>
-      </c>
       <c r="K9">
-        <v>4.9</v>
+        <v>950</v>
       </c>
       <c r="L9">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="M9">
-        <v>1.73</v>
+        <v>2.7</v>
       </c>
       <c r="N9">
-        <v>2.38</v>
+        <v>1.59</v>
       </c>
       <c r="O9">
-        <v>3.25</v>
+        <v>3.95</v>
       </c>
       <c r="P9">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="Q9">
-        <v>1000</v>
+        <v>2.62</v>
       </c>
       <c r="R9">
-        <v>1.1</v>
+        <v>1.63</v>
       </c>
       <c r="S9">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="T9">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="U9">
         <v>980</v>
@@ -2435,19 +2423,19 @@
         <v>1000</v>
       </c>
       <c r="AX9">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AY9">
         <v>1000</v>
       </c>
       <c r="AZ9">
-        <v>1.55</v>
+        <v>1.1</v>
       </c>
       <c r="BA9">
         <v>1000</v>
       </c>
       <c r="BB9">
-        <v>1.55</v>
+        <v>1.1</v>
       </c>
       <c r="BC9">
         <v>1000</v>
@@ -2459,225 +2447,225 @@
         <v>1000</v>
       </c>
       <c r="BF9">
-        <v>33119269</v>
+        <v>33100630</v>
       </c>
       <c r="BG9">
-        <v>7658015</v>
+        <v>10932747</v>
       </c>
       <c r="BH9">
-        <v>893607</v>
+        <v>1222679</v>
       </c>
       <c r="BI9">
         <v>58805</v>
       </c>
       <c r="BJ9">
-        <v>1.226337095</v>
+        <v>1.226061147</v>
       </c>
       <c r="BK9">
-        <v>1.22633714</v>
+        <v>1.226061192</v>
       </c>
       <c r="BL9">
-        <v>1.226337179</v>
+        <v>0</v>
       </c>
       <c r="BM9">
-        <v>1.226337104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:65">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F10">
-        <v>2.48</v>
+        <v>1.71</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>1.83</v>
       </c>
       <c r="H10">
-        <v>2.82</v>
+        <v>5.1</v>
       </c>
       <c r="I10">
-        <v>3.45</v>
+        <v>6.2</v>
       </c>
       <c r="J10">
-        <v>2.9</v>
+        <v>3.65</v>
       </c>
       <c r="K10">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="L10">
-        <v>1.58</v>
+        <v>1.85</v>
       </c>
       <c r="M10">
-        <v>1.77</v>
+        <v>2.08</v>
       </c>
       <c r="N10">
-        <v>2.3</v>
+        <v>1.93</v>
       </c>
       <c r="O10">
-        <v>2.72</v>
+        <v>2.18</v>
       </c>
       <c r="P10">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="Q10">
-        <v>2.24</v>
+        <v>2.1</v>
       </c>
       <c r="R10">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="T10">
-        <v>3.45</v>
+        <v>11</v>
       </c>
       <c r="U10">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="V10">
-        <v>3.45</v>
+        <v>5.8</v>
       </c>
       <c r="W10">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="X10">
-        <v>4</v>
+        <v>6.8</v>
       </c>
       <c r="Y10">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="Z10">
-        <v>3.6</v>
+        <v>7.8</v>
       </c>
       <c r="AA10">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="AB10">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="AC10">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AD10">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="AE10">
-        <v>14</v>
+        <v>9.4</v>
       </c>
       <c r="AF10">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="AG10">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AH10">
-        <v>4.5</v>
+        <v>7.4</v>
       </c>
       <c r="AI10">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AJ10">
-        <v>3.95</v>
+        <v>8.4</v>
       </c>
       <c r="AK10">
+        <v>11</v>
+      </c>
+      <c r="AL10">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AM10">
+        <v>980</v>
+      </c>
+      <c r="AN10">
+        <v>6</v>
+      </c>
+      <c r="AO10">
+        <v>980</v>
+      </c>
+      <c r="AP10">
+        <v>7.4</v>
+      </c>
+      <c r="AQ10">
+        <v>85</v>
+      </c>
+      <c r="AR10">
+        <v>5.9</v>
+      </c>
+      <c r="AS10">
         <v>20</v>
       </c>
-      <c r="AL10">
-        <v>3.8</v>
-      </c>
-      <c r="AM10">
-        <v>16</v>
-      </c>
-      <c r="AN10">
-        <v>4.1</v>
-      </c>
-      <c r="AO10">
-        <v>26</v>
-      </c>
-      <c r="AP10">
-        <v>3.6</v>
-      </c>
-      <c r="AQ10">
-        <v>80</v>
-      </c>
-      <c r="AR10">
-        <v>3.55</v>
-      </c>
-      <c r="AS10">
-        <v>55</v>
-      </c>
       <c r="AT10">
-        <v>4.4</v>
+        <v>5.9</v>
       </c>
       <c r="AU10">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="AV10">
-        <v>3.6</v>
+        <v>6.8</v>
       </c>
       <c r="AW10">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AX10">
-        <v>4.8</v>
+        <v>7.8</v>
       </c>
       <c r="AY10">
         <v>1000</v>
       </c>
       <c r="AZ10">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="BA10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="BB10">
-        <v>3.5</v>
+        <v>7.6</v>
       </c>
       <c r="BC10">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="BD10">
-        <v>5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BE10">
         <v>1000</v>
       </c>
-      <c r="BF10" t="s">
-        <v>106</v>
+      <c r="BF10">
+        <v>33116591</v>
       </c>
       <c r="BG10">
-        <v>10939060</v>
+        <v>17583926</v>
       </c>
       <c r="BH10">
-        <v>8761113</v>
+        <v>13638535</v>
       </c>
       <c r="BI10">
         <v>58805</v>
       </c>
-      <c r="BJ10" t="s">
-        <v>107</v>
-      </c>
-      <c r="BK10" t="s">
-        <v>108</v>
-      </c>
-      <c r="BL10" t="s">
-        <v>109</v>
-      </c>
-      <c r="BM10" t="s">
-        <v>110</v>
+      <c r="BJ10">
+        <v>1.226290831</v>
+      </c>
+      <c r="BK10">
+        <v>1.226290876</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:65">
@@ -2691,184 +2679,184 @@
         <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F11">
-        <v>1.73</v>
+        <v>6.6</v>
       </c>
       <c r="G11">
-        <v>1.88</v>
+        <v>8</v>
       </c>
       <c r="H11">
+        <v>1.48</v>
+      </c>
+      <c r="I11">
+        <v>1.53</v>
+      </c>
+      <c r="J11">
+        <v>4.5</v>
+      </c>
+      <c r="K11">
+        <v>5.1</v>
+      </c>
+      <c r="L11">
+        <v>2.16</v>
+      </c>
+      <c r="M11">
+        <v>2.32</v>
+      </c>
+      <c r="N11">
+        <v>1.76</v>
+      </c>
+      <c r="O11">
+        <v>1.86</v>
+      </c>
+      <c r="P11">
+        <v>1.93</v>
+      </c>
+      <c r="Q11">
+        <v>2.06</v>
+      </c>
+      <c r="R11">
+        <v>1.95</v>
+      </c>
+      <c r="S11">
+        <v>2.08</v>
+      </c>
+      <c r="T11">
+        <v>6.4</v>
+      </c>
+      <c r="U11">
+        <v>21</v>
+      </c>
+      <c r="V11">
+        <v>7.4</v>
+      </c>
+      <c r="W11">
+        <v>9.6</v>
+      </c>
+      <c r="X11">
+        <v>7.4</v>
+      </c>
+      <c r="Y11">
+        <v>10</v>
+      </c>
+      <c r="Z11">
+        <v>11</v>
+      </c>
+      <c r="AA11">
+        <v>16.5</v>
+      </c>
+      <c r="AB11">
+        <v>6.8</v>
+      </c>
+      <c r="AC11">
+        <v>27</v>
+      </c>
+      <c r="AD11">
+        <v>5</v>
+      </c>
+      <c r="AE11">
+        <v>11</v>
+      </c>
+      <c r="AF11">
         <v>4.9</v>
       </c>
-      <c r="I11">
-        <v>6</v>
-      </c>
-      <c r="J11">
-        <v>3.7</v>
-      </c>
-      <c r="K11">
-        <v>4.2</v>
-      </c>
-      <c r="L11">
+      <c r="AG11">
+        <v>10.5</v>
+      </c>
+      <c r="AH11">
+        <v>5.9</v>
+      </c>
+      <c r="AI11">
+        <v>17.5</v>
+      </c>
+      <c r="AJ11">
+        <v>2.82</v>
+      </c>
+      <c r="AK11">
+        <v>65</v>
+      </c>
+      <c r="AL11">
+        <v>6.6</v>
+      </c>
+      <c r="AM11">
+        <v>28</v>
+      </c>
+      <c r="AN11">
+        <v>6.8</v>
+      </c>
+      <c r="AO11">
+        <v>26</v>
+      </c>
+      <c r="AP11">
+        <v>2.72</v>
+      </c>
+      <c r="AQ11">
+        <v>38</v>
+      </c>
+      <c r="AR11">
+        <v>1.83</v>
+      </c>
+      <c r="AS11">
+        <v>1000</v>
+      </c>
+      <c r="AT11">
+        <v>2.16</v>
+      </c>
+      <c r="AU11">
+        <v>120</v>
+      </c>
+      <c r="AV11">
+        <v>2.88</v>
+      </c>
+      <c r="AW11">
+        <v>110</v>
+      </c>
+      <c r="AX11">
+        <v>1.81</v>
+      </c>
+      <c r="AY11">
+        <v>130</v>
+      </c>
+      <c r="AZ11">
+        <v>1.81</v>
+      </c>
+      <c r="BA11">
+        <v>130</v>
+      </c>
+      <c r="BB11">
+        <v>4.1</v>
+      </c>
+      <c r="BC11">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BD11">
         <v>1.84</v>
       </c>
-      <c r="M11">
-        <v>2.08</v>
-      </c>
-      <c r="N11">
-        <v>1.94</v>
-      </c>
-      <c r="O11">
-        <v>2.18</v>
-      </c>
-      <c r="P11">
-        <v>1.87</v>
-      </c>
-      <c r="Q11">
-        <v>2.04</v>
-      </c>
-      <c r="R11">
-        <v>1.97</v>
-      </c>
-      <c r="S11">
-        <v>2.14</v>
-      </c>
-      <c r="T11">
-        <v>11</v>
-      </c>
-      <c r="U11">
-        <v>980</v>
-      </c>
-      <c r="V11">
-        <v>5.7</v>
-      </c>
-      <c r="W11">
-        <v>980</v>
-      </c>
-      <c r="X11">
-        <v>6.8</v>
-      </c>
-      <c r="Y11">
-        <v>44</v>
-      </c>
-      <c r="Z11">
-        <v>7.6</v>
-      </c>
-      <c r="AA11">
-        <v>130</v>
-      </c>
-      <c r="AB11">
-        <v>4.2</v>
-      </c>
-      <c r="AC11">
-        <v>980</v>
-      </c>
-      <c r="AD11">
-        <v>4.6</v>
-      </c>
-      <c r="AE11">
-        <v>980</v>
-      </c>
-      <c r="AF11">
-        <v>5.9</v>
-      </c>
-      <c r="AG11">
-        <v>980</v>
-      </c>
-      <c r="AH11">
-        <v>7.2</v>
-      </c>
-      <c r="AI11">
-        <v>75</v>
-      </c>
-      <c r="AJ11">
-        <v>8.4</v>
-      </c>
-      <c r="AK11">
-        <v>11.5</v>
-      </c>
-      <c r="AL11">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AM11">
-        <v>980</v>
-      </c>
-      <c r="AN11">
-        <v>5.9</v>
-      </c>
-      <c r="AO11">
-        <v>980</v>
-      </c>
-      <c r="AP11">
-        <v>7.2</v>
-      </c>
-      <c r="AQ11">
-        <v>85</v>
-      </c>
-      <c r="AR11">
-        <v>6</v>
-      </c>
-      <c r="AS11">
-        <v>20</v>
-      </c>
-      <c r="AT11">
-        <v>5.8</v>
-      </c>
-      <c r="AU11">
-        <v>21</v>
-      </c>
-      <c r="AV11">
-        <v>6.6</v>
-      </c>
-      <c r="AW11">
-        <v>42</v>
-      </c>
-      <c r="AX11">
-        <v>7.6</v>
-      </c>
-      <c r="AY11">
-        <v>1000</v>
-      </c>
-      <c r="AZ11">
-        <v>4.9</v>
-      </c>
-      <c r="BA11">
-        <v>13</v>
-      </c>
-      <c r="BB11">
-        <v>7.2</v>
-      </c>
-      <c r="BC11">
-        <v>85</v>
-      </c>
-      <c r="BD11">
-        <v>4.2</v>
-      </c>
       <c r="BE11">
         <v>1000</v>
       </c>
       <c r="BF11">
-        <v>33116591</v>
+        <v>33115767</v>
       </c>
       <c r="BG11">
-        <v>17583926</v>
+        <v>44232344</v>
       </c>
       <c r="BH11">
-        <v>13638535</v>
+        <v>474678</v>
       </c>
       <c r="BI11">
         <v>58805</v>
       </c>
       <c r="BJ11">
-        <v>1.226290831</v>
+        <v>1.226269686</v>
       </c>
       <c r="BK11">
-        <v>1.226290876</v>
+        <v>1.226269731</v>
       </c>
       <c r="BL11">
         <v>0</v>
@@ -2879,396 +2867,396 @@
     </row>
     <row r="12" spans="1:65">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
       </c>
       <c r="C12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12">
+        <v>2.04</v>
+      </c>
+      <c r="G12">
+        <v>2.12</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>4.5</v>
+      </c>
+      <c r="J12">
+        <v>3.5</v>
+      </c>
+      <c r="K12">
+        <v>3.55</v>
+      </c>
+      <c r="L12">
+        <v>1.58</v>
+      </c>
+      <c r="M12">
+        <v>1.72</v>
+      </c>
+      <c r="N12">
+        <v>2.38</v>
+      </c>
+      <c r="O12">
+        <v>2.72</v>
+      </c>
+      <c r="P12">
+        <v>2.16</v>
+      </c>
+      <c r="Q12">
+        <v>2.3</v>
+      </c>
+      <c r="R12">
+        <v>1.76</v>
+      </c>
+      <c r="S12">
+        <v>1.87</v>
+      </c>
+      <c r="T12">
+        <v>8.6</v>
+      </c>
+      <c r="U12">
+        <v>9.6</v>
+      </c>
+      <c r="V12">
+        <v>11</v>
+      </c>
+      <c r="W12">
+        <v>12</v>
+      </c>
+      <c r="X12">
+        <v>26</v>
+      </c>
+      <c r="Y12">
+        <v>30</v>
+      </c>
+      <c r="Z12">
+        <v>13.5</v>
+      </c>
+      <c r="AA12">
+        <v>130</v>
+      </c>
+      <c r="AB12">
+        <v>6.6</v>
+      </c>
+      <c r="AC12">
+        <v>7.4</v>
+      </c>
+      <c r="AD12">
+        <v>7</v>
+      </c>
+      <c r="AE12">
+        <v>7.8</v>
+      </c>
+      <c r="AF12">
+        <v>16.5</v>
+      </c>
+      <c r="AG12">
+        <v>18.5</v>
+      </c>
+      <c r="AH12">
+        <v>12.5</v>
+      </c>
+      <c r="AI12">
         <v>80</v>
       </c>
-      <c r="D12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" t="s">
-        <v>104</v>
-      </c>
-      <c r="F12">
-        <v>6</v>
-      </c>
-      <c r="G12">
-        <v>7.8</v>
-      </c>
-      <c r="H12">
-        <v>1.54</v>
-      </c>
-      <c r="I12">
-        <v>1.58</v>
-      </c>
-      <c r="J12">
-        <v>4.5</v>
-      </c>
-      <c r="K12">
-        <v>5.2</v>
-      </c>
-      <c r="L12">
-        <v>2.2</v>
-      </c>
-      <c r="M12">
-        <v>2.38</v>
-      </c>
-      <c r="N12">
-        <v>1.73</v>
-      </c>
-      <c r="O12">
-        <v>1.83</v>
-      </c>
-      <c r="P12">
-        <v>1.86</v>
-      </c>
-      <c r="Q12">
-        <v>1.99</v>
-      </c>
-      <c r="R12">
-        <v>2</v>
-      </c>
-      <c r="S12">
-        <v>2.16</v>
-      </c>
-      <c r="T12">
-        <v>6</v>
-      </c>
-      <c r="U12">
+      <c r="AJ12">
+        <v>10</v>
+      </c>
+      <c r="AK12">
+        <v>11.5</v>
+      </c>
+      <c r="AL12">
+        <v>10</v>
+      </c>
+      <c r="AM12">
+        <v>11.5</v>
+      </c>
+      <c r="AN12">
+        <v>19</v>
+      </c>
+      <c r="AO12">
+        <v>27</v>
+      </c>
+      <c r="AP12">
+        <v>13</v>
+      </c>
+      <c r="AQ12">
+        <v>120</v>
+      </c>
+      <c r="AR12">
+        <v>19.5</v>
+      </c>
+      <c r="AS12">
+        <v>26</v>
+      </c>
+      <c r="AT12">
         <v>22</v>
       </c>
-      <c r="V12">
-        <v>4.7</v>
-      </c>
-      <c r="W12">
-        <v>9.6</v>
-      </c>
-      <c r="X12">
-        <v>4.7</v>
-      </c>
-      <c r="Y12">
-        <v>10.5</v>
-      </c>
-      <c r="Z12">
-        <v>5.8</v>
-      </c>
-      <c r="AA12">
-        <v>16</v>
-      </c>
-      <c r="AB12">
-        <v>6.8</v>
-      </c>
-      <c r="AC12">
+      <c r="AU12">
         <v>27</v>
       </c>
-      <c r="AD12">
-        <v>5</v>
-      </c>
-      <c r="AE12">
-        <v>11</v>
-      </c>
-      <c r="AF12">
-        <v>4.9</v>
-      </c>
-      <c r="AG12">
-        <v>10.5</v>
-      </c>
-      <c r="AH12">
-        <v>6</v>
-      </c>
-      <c r="AI12">
+      <c r="AV12">
+        <v>13</v>
+      </c>
+      <c r="AW12">
+        <v>980</v>
+      </c>
+      <c r="AX12">
+        <v>14</v>
+      </c>
+      <c r="AY12">
+        <v>980</v>
+      </c>
+      <c r="AZ12">
         <v>17.5</v>
       </c>
-      <c r="AJ12">
-        <v>2.14</v>
-      </c>
-      <c r="AK12">
-        <v>65</v>
-      </c>
-      <c r="AL12">
-        <v>6.4</v>
-      </c>
-      <c r="AM12">
-        <v>28</v>
-      </c>
-      <c r="AN12">
-        <v>6.4</v>
-      </c>
-      <c r="AO12">
-        <v>26</v>
-      </c>
-      <c r="AP12">
-        <v>17</v>
-      </c>
-      <c r="AQ12">
-        <v>38</v>
-      </c>
-      <c r="AR12">
-        <v>4.4</v>
-      </c>
-      <c r="AS12">
-        <v>1000</v>
-      </c>
-      <c r="AT12">
-        <v>2.16</v>
-      </c>
-      <c r="AU12">
-        <v>100</v>
-      </c>
-      <c r="AV12">
-        <v>2.16</v>
-      </c>
-      <c r="AW12">
-        <v>95</v>
-      </c>
-      <c r="AX12">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AY12">
-        <v>130</v>
-      </c>
-      <c r="AZ12">
-        <v>2.16</v>
-      </c>
       <c r="BA12">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="BB12">
-        <v>4.1</v>
+        <v>13.5</v>
       </c>
       <c r="BC12">
-        <v>8.800000000000001</v>
+        <v>120</v>
       </c>
       <c r="BD12">
-        <v>2.2</v>
+        <v>15</v>
       </c>
       <c r="BE12">
         <v>1000</v>
       </c>
       <c r="BF12">
-        <v>33115767</v>
+        <v>33100571</v>
       </c>
       <c r="BG12">
-        <v>44232344</v>
+        <v>453739</v>
       </c>
       <c r="BH12">
-        <v>474678</v>
+        <v>220949</v>
       </c>
       <c r="BI12">
         <v>58805</v>
       </c>
       <c r="BJ12">
-        <v>1.226269686</v>
+        <v>1.22605604</v>
       </c>
       <c r="BK12">
-        <v>1.226269731</v>
+        <v>1.22605605</v>
       </c>
       <c r="BL12">
         <v>0</v>
       </c>
       <c r="BM12">
-        <v>0</v>
+        <v>1.226056049</v>
       </c>
     </row>
     <row r="13" spans="1:65">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F13">
-        <v>1.95</v>
+        <v>2.52</v>
       </c>
       <c r="G13">
-        <v>2.02</v>
+        <v>2.98</v>
       </c>
       <c r="H13">
-        <v>4.6</v>
+        <v>2.88</v>
       </c>
       <c r="I13">
-        <v>5.1</v>
+        <v>3.5</v>
       </c>
       <c r="J13">
+        <v>2.96</v>
+      </c>
+      <c r="K13">
+        <v>3.35</v>
+      </c>
+      <c r="L13">
+        <v>1.58</v>
+      </c>
+      <c r="M13">
+        <v>1.77</v>
+      </c>
+      <c r="N13">
+        <v>2.3</v>
+      </c>
+      <c r="O13">
+        <v>2.72</v>
+      </c>
+      <c r="P13">
+        <v>1.68</v>
+      </c>
+      <c r="Q13">
+        <v>2.24</v>
+      </c>
+      <c r="R13">
+        <v>1.81</v>
+      </c>
+      <c r="S13">
+        <v>2.48</v>
+      </c>
+      <c r="T13">
+        <v>3.45</v>
+      </c>
+      <c r="U13">
+        <v>11.5</v>
+      </c>
+      <c r="V13">
+        <v>3.5</v>
+      </c>
+      <c r="W13">
+        <v>12</v>
+      </c>
+      <c r="X13">
+        <v>4.1</v>
+      </c>
+      <c r="Y13">
+        <v>24</v>
+      </c>
+      <c r="Z13">
+        <v>3.6</v>
+      </c>
+      <c r="AA13">
+        <v>65</v>
+      </c>
+      <c r="AB13">
         <v>3.3</v>
       </c>
-      <c r="K13">
+      <c r="AC13">
+        <v>10.5</v>
+      </c>
+      <c r="AD13">
+        <v>3</v>
+      </c>
+      <c r="AE13">
+        <v>14</v>
+      </c>
+      <c r="AF13">
+        <v>3.8</v>
+      </c>
+      <c r="AG13">
+        <v>17</v>
+      </c>
+      <c r="AH13">
+        <v>4.5</v>
+      </c>
+      <c r="AI13">
+        <v>55</v>
+      </c>
+      <c r="AJ13">
+        <v>3.95</v>
+      </c>
+      <c r="AK13">
+        <v>20</v>
+      </c>
+      <c r="AL13">
+        <v>3.8</v>
+      </c>
+      <c r="AM13">
+        <v>16</v>
+      </c>
+      <c r="AN13">
+        <v>4.1</v>
+      </c>
+      <c r="AO13">
+        <v>26</v>
+      </c>
+      <c r="AP13">
         <v>3.6</v>
       </c>
-      <c r="L13">
-        <v>1.56</v>
-      </c>
-      <c r="M13">
-        <v>1.71</v>
-      </c>
-      <c r="N13">
-        <v>2.42</v>
-      </c>
-      <c r="O13">
-        <v>2.76</v>
-      </c>
-      <c r="P13">
-        <v>2.2</v>
-      </c>
-      <c r="Q13">
-        <v>2.36</v>
-      </c>
-      <c r="R13">
-        <v>1.73</v>
-      </c>
-      <c r="S13">
-        <v>1.84</v>
-      </c>
-      <c r="T13">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="U13">
-        <v>9.4</v>
-      </c>
-      <c r="V13">
-        <v>11.5</v>
-      </c>
-      <c r="W13">
-        <v>13</v>
-      </c>
-      <c r="X13">
-        <v>29</v>
-      </c>
-      <c r="Y13">
-        <v>34</v>
-      </c>
-      <c r="Z13">
-        <v>13</v>
-      </c>
-      <c r="AA13">
-        <v>140</v>
-      </c>
-      <c r="AB13">
-        <v>6.2</v>
-      </c>
-      <c r="AC13">
-        <v>7</v>
-      </c>
-      <c r="AD13">
-        <v>7.2</v>
-      </c>
-      <c r="AE13">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AF13">
-        <v>18.5</v>
-      </c>
-      <c r="AG13">
-        <v>21</v>
-      </c>
-      <c r="AH13">
-        <v>12.5</v>
-      </c>
-      <c r="AI13">
-        <v>980</v>
-      </c>
-      <c r="AJ13">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AK13">
-        <v>10.5</v>
-      </c>
-      <c r="AL13">
-        <v>10</v>
-      </c>
-      <c r="AM13">
-        <v>11.5</v>
-      </c>
-      <c r="AN13">
-        <v>9.6</v>
-      </c>
-      <c r="AO13">
-        <v>28</v>
-      </c>
-      <c r="AP13">
-        <v>12.5</v>
-      </c>
       <c r="AQ13">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AR13">
-        <v>19.5</v>
+        <v>4.5</v>
       </c>
       <c r="AS13">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="AT13">
-        <v>22</v>
+        <v>4.4</v>
       </c>
       <c r="AU13">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="AV13">
-        <v>34</v>
+        <v>3.6</v>
       </c>
       <c r="AW13">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AX13">
-        <v>13.5</v>
+        <v>4.9</v>
       </c>
       <c r="AY13">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AZ13">
-        <v>15</v>
+        <v>3.5</v>
       </c>
       <c r="BA13">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="BB13">
-        <v>13</v>
+        <v>3.55</v>
       </c>
       <c r="BC13">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="BD13">
-        <v>14.5</v>
+        <v>4.9</v>
       </c>
       <c r="BE13">
         <v>1000</v>
       </c>
       <c r="BF13">
-        <v>33100571</v>
+        <v>33119483</v>
       </c>
       <c r="BG13">
-        <v>453739</v>
+        <v>10939060</v>
       </c>
       <c r="BH13">
-        <v>220949</v>
+        <v>8761113</v>
       </c>
       <c r="BI13">
         <v>58805</v>
       </c>
       <c r="BJ13">
-        <v>1.22605604</v>
+        <v>1.226338669</v>
       </c>
       <c r="BK13">
-        <v>1.22605605</v>
+        <v>1.226338714</v>
       </c>
       <c r="BL13">
-        <v>0</v>
+        <v>1.226338753</v>
       </c>
       <c r="BM13">
-        <v>1.226056049</v>
+        <v>1.226338678</v>
       </c>
     </row>
   </sheetData>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-19.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-19.xlsx
@@ -2488,157 +2488,157 @@
         <v>103</v>
       </c>
       <c r="F10">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="G10">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="H10">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="I10">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="J10">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="K10">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="L10">
+        <v>2.18</v>
+      </c>
+      <c r="M10">
+        <v>2.26</v>
+      </c>
+      <c r="N10">
+        <v>1.79</v>
+      </c>
+      <c r="O10">
         <v>1.85</v>
       </c>
-      <c r="M10">
-        <v>2.08</v>
-      </c>
-      <c r="N10">
-        <v>1.93</v>
-      </c>
-      <c r="O10">
-        <v>2.18</v>
-      </c>
       <c r="P10">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q10">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R10">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S10">
         <v>2.18</v>
       </c>
       <c r="T10">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="U10">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="V10">
-        <v>5.8</v>
+        <v>18</v>
       </c>
       <c r="W10">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="X10">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="Y10">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="Z10">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AA10">
+        <v>980</v>
+      </c>
+      <c r="AB10">
         <v>7.8</v>
       </c>
-      <c r="AA10">
-        <v>150</v>
-      </c>
-      <c r="AB10">
-        <v>4.2</v>
-      </c>
       <c r="AC10">
-        <v>980</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD10">
-        <v>4.6</v>
+        <v>8.4</v>
       </c>
       <c r="AE10">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="AF10">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="AG10">
         <v>980</v>
       </c>
       <c r="AH10">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
       <c r="AI10">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AJ10">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AK10">
+        <v>10.5</v>
+      </c>
+      <c r="AL10">
+        <v>8</v>
+      </c>
+      <c r="AM10">
+        <v>10</v>
+      </c>
+      <c r="AN10">
+        <v>19</v>
+      </c>
+      <c r="AO10">
+        <v>24</v>
+      </c>
+      <c r="AP10">
         <v>8.4</v>
       </c>
-      <c r="AK10">
-        <v>11</v>
-      </c>
-      <c r="AL10">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AM10">
-        <v>980</v>
-      </c>
-      <c r="AN10">
-        <v>6</v>
-      </c>
-      <c r="AO10">
-        <v>980</v>
-      </c>
-      <c r="AP10">
-        <v>7.4</v>
-      </c>
       <c r="AQ10">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="AR10">
-        <v>5.9</v>
+        <v>12</v>
       </c>
       <c r="AS10">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AT10">
-        <v>5.9</v>
+        <v>14</v>
       </c>
       <c r="AU10">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AV10">
-        <v>6.8</v>
+        <v>25</v>
       </c>
       <c r="AW10">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AX10">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AY10">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ10">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="BA10">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BB10">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="BC10">
-        <v>100</v>
+        <v>980</v>
       </c>
       <c r="BD10">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="BE10">
         <v>1000</v>
@@ -2685,157 +2685,157 @@
         <v>104</v>
       </c>
       <c r="F11">
-        <v>6.6</v>
+        <v>1.05</v>
       </c>
       <c r="G11">
+        <v>44</v>
+      </c>
+      <c r="H11">
+        <v>1.5</v>
+      </c>
+      <c r="I11">
+        <v>1.71</v>
+      </c>
+      <c r="J11">
+        <v>2.26</v>
+      </c>
+      <c r="K11">
+        <v>950</v>
+      </c>
+      <c r="L11">
+        <v>1.73</v>
+      </c>
+      <c r="M11">
+        <v>2.98</v>
+      </c>
+      <c r="N11">
+        <v>1.51</v>
+      </c>
+      <c r="O11">
+        <v>2.38</v>
+      </c>
+      <c r="P11">
+        <v>1.65</v>
+      </c>
+      <c r="Q11">
+        <v>2.76</v>
+      </c>
+      <c r="R11">
+        <v>1.57</v>
+      </c>
+      <c r="S11">
+        <v>2.54</v>
+      </c>
+      <c r="T11">
+        <v>1.49</v>
+      </c>
+      <c r="U11">
+        <v>1000</v>
+      </c>
+      <c r="V11">
+        <v>2.5</v>
+      </c>
+      <c r="W11">
+        <v>1000</v>
+      </c>
+      <c r="X11">
+        <v>7</v>
+      </c>
+      <c r="Y11">
+        <v>1000</v>
+      </c>
+      <c r="Z11">
+        <v>10</v>
+      </c>
+      <c r="AA11">
+        <v>1000</v>
+      </c>
+      <c r="AB11">
+        <v>1.03</v>
+      </c>
+      <c r="AC11">
+        <v>1000</v>
+      </c>
+      <c r="AD11">
+        <v>9</v>
+      </c>
+      <c r="AE11">
+        <v>1000</v>
+      </c>
+      <c r="AF11">
+        <v>5.8</v>
+      </c>
+      <c r="AG11">
+        <v>1000</v>
+      </c>
+      <c r="AH11">
+        <v>5.3</v>
+      </c>
+      <c r="AI11">
+        <v>1000</v>
+      </c>
+      <c r="AJ11">
+        <v>2.88</v>
+      </c>
+      <c r="AK11">
+        <v>1000</v>
+      </c>
+      <c r="AL11">
+        <v>1.03</v>
+      </c>
+      <c r="AM11">
+        <v>1000</v>
+      </c>
+      <c r="AN11">
+        <v>1.01</v>
+      </c>
+      <c r="AO11">
+        <v>1000</v>
+      </c>
+      <c r="AP11">
+        <v>9</v>
+      </c>
+      <c r="AQ11">
+        <v>1000</v>
+      </c>
+      <c r="AR11">
+        <v>3.75</v>
+      </c>
+      <c r="AS11">
+        <v>1000</v>
+      </c>
+      <c r="AT11">
         <v>8</v>
       </c>
-      <c r="H11">
-        <v>1.48</v>
-      </c>
-      <c r="I11">
-        <v>1.53</v>
-      </c>
-      <c r="J11">
-        <v>4.5</v>
-      </c>
-      <c r="K11">
-        <v>5.1</v>
-      </c>
-      <c r="L11">
-        <v>2.16</v>
-      </c>
-      <c r="M11">
-        <v>2.32</v>
-      </c>
-      <c r="N11">
-        <v>1.76</v>
-      </c>
-      <c r="O11">
-        <v>1.86</v>
-      </c>
-      <c r="P11">
-        <v>1.93</v>
-      </c>
-      <c r="Q11">
-        <v>2.06</v>
-      </c>
-      <c r="R11">
-        <v>1.95</v>
-      </c>
-      <c r="S11">
-        <v>2.08</v>
-      </c>
-      <c r="T11">
-        <v>6.4</v>
-      </c>
-      <c r="U11">
-        <v>21</v>
-      </c>
-      <c r="V11">
-        <v>7.4</v>
-      </c>
-      <c r="W11">
-        <v>9.6</v>
-      </c>
-      <c r="X11">
-        <v>7.4</v>
-      </c>
-      <c r="Y11">
-        <v>10</v>
-      </c>
-      <c r="Z11">
+      <c r="AU11">
+        <v>1000</v>
+      </c>
+      <c r="AV11">
+        <v>5.8</v>
+      </c>
+      <c r="AW11">
+        <v>1000</v>
+      </c>
+      <c r="AX11">
         <v>11</v>
       </c>
-      <c r="AA11">
-        <v>16.5</v>
-      </c>
-      <c r="AB11">
-        <v>6.8</v>
-      </c>
-      <c r="AC11">
-        <v>27</v>
-      </c>
-      <c r="AD11">
-        <v>5</v>
-      </c>
-      <c r="AE11">
-        <v>11</v>
-      </c>
-      <c r="AF11">
-        <v>4.9</v>
-      </c>
-      <c r="AG11">
-        <v>10.5</v>
-      </c>
-      <c r="AH11">
-        <v>5.9</v>
-      </c>
-      <c r="AI11">
-        <v>17.5</v>
-      </c>
-      <c r="AJ11">
-        <v>2.82</v>
-      </c>
-      <c r="AK11">
-        <v>65</v>
-      </c>
-      <c r="AL11">
-        <v>6.6</v>
-      </c>
-      <c r="AM11">
-        <v>28</v>
-      </c>
-      <c r="AN11">
-        <v>6.8</v>
-      </c>
-      <c r="AO11">
-        <v>26</v>
-      </c>
-      <c r="AP11">
-        <v>2.72</v>
-      </c>
-      <c r="AQ11">
-        <v>38</v>
-      </c>
-      <c r="AR11">
-        <v>1.83</v>
-      </c>
-      <c r="AS11">
-        <v>1000</v>
-      </c>
-      <c r="AT11">
-        <v>2.16</v>
-      </c>
-      <c r="AU11">
-        <v>120</v>
-      </c>
-      <c r="AV11">
-        <v>2.88</v>
-      </c>
-      <c r="AW11">
-        <v>110</v>
-      </c>
-      <c r="AX11">
-        <v>1.81</v>
-      </c>
       <c r="AY11">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AZ11">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="BA11">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="BB11">
-        <v>4.1</v>
+        <v>1.01</v>
       </c>
       <c r="BC11">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="BD11">
-        <v>1.84</v>
+        <v>1.01</v>
       </c>
       <c r="BE11">
         <v>1000</v>
@@ -2882,31 +2882,31 @@
         <v>105</v>
       </c>
       <c r="F12">
+        <v>2.02</v>
+      </c>
+      <c r="G12">
         <v>2.04</v>
       </c>
-      <c r="G12">
-        <v>2.12</v>
-      </c>
       <c r="H12">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="I12">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="J12">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="K12">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="L12">
         <v>1.58</v>
       </c>
       <c r="M12">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="N12">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="O12">
         <v>2.72</v>
@@ -2915,124 +2915,124 @@
         <v>2.16</v>
       </c>
       <c r="Q12">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="R12">
-        <v>1.76</v>
+        <v>1.48</v>
       </c>
       <c r="S12">
         <v>1.87</v>
       </c>
       <c r="T12">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="U12">
-        <v>9.6</v>
+        <v>18</v>
       </c>
       <c r="V12">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="W12">
         <v>12</v>
       </c>
       <c r="X12">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Y12">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z12">
-        <v>13.5</v>
+        <v>5.2</v>
       </c>
       <c r="AA12">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="AB12">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="AC12">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="AD12">
         <v>7</v>
       </c>
       <c r="AE12">
-        <v>7.8</v>
+        <v>19.5</v>
       </c>
       <c r="AF12">
         <v>16.5</v>
       </c>
       <c r="AG12">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AH12">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AI12">
         <v>80</v>
       </c>
       <c r="AJ12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK12">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL12">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AM12">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AN12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO12">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP12">
-        <v>13</v>
+        <v>5.1</v>
       </c>
       <c r="AQ12">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AR12">
-        <v>19.5</v>
+        <v>9</v>
       </c>
       <c r="AS12">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AT12">
-        <v>22</v>
+        <v>4.6</v>
       </c>
       <c r="AU12">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AV12">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AW12">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AX12">
-        <v>14</v>
+        <v>210</v>
       </c>
       <c r="AY12">
-        <v>980</v>
+        <v>250</v>
       </c>
       <c r="AZ12">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="BA12">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BB12">
-        <v>13.5</v>
+        <v>80</v>
       </c>
       <c r="BC12">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="BD12">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="BE12">
         <v>1000</v>
@@ -3079,157 +3079,157 @@
         <v>106</v>
       </c>
       <c r="F13">
-        <v>2.52</v>
+        <v>2.74</v>
       </c>
       <c r="G13">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="H13">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="I13">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="J13">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K13">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L13">
         <v>1.58</v>
       </c>
       <c r="M13">
-        <v>1.77</v>
+        <v>1.67</v>
       </c>
       <c r="N13">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="O13">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="P13">
-        <v>1.68</v>
+        <v>2.02</v>
       </c>
       <c r="Q13">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="R13">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="S13">
-        <v>2.48</v>
+        <v>1.97</v>
       </c>
       <c r="T13">
-        <v>3.45</v>
+        <v>4.5</v>
       </c>
       <c r="U13">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="V13">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="W13">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="X13">
+        <v>5.8</v>
+      </c>
+      <c r="Y13">
+        <v>980</v>
+      </c>
+      <c r="Z13">
+        <v>7</v>
+      </c>
+      <c r="AA13">
+        <v>980</v>
+      </c>
+      <c r="AB13">
+        <v>4.5</v>
+      </c>
+      <c r="AC13">
+        <v>980</v>
+      </c>
+      <c r="AD13">
         <v>4.1</v>
-      </c>
-      <c r="Y13">
-        <v>24</v>
-      </c>
-      <c r="Z13">
-        <v>3.6</v>
-      </c>
-      <c r="AA13">
-        <v>65</v>
-      </c>
-      <c r="AB13">
-        <v>3.3</v>
-      </c>
-      <c r="AC13">
-        <v>10.5</v>
-      </c>
-      <c r="AD13">
-        <v>3</v>
       </c>
       <c r="AE13">
         <v>14</v>
       </c>
       <c r="AF13">
-        <v>3.8</v>
+        <v>11</v>
       </c>
       <c r="AG13">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AH13">
-        <v>4.5</v>
+        <v>6.8</v>
       </c>
       <c r="AI13">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AJ13">
-        <v>3.95</v>
+        <v>5.8</v>
       </c>
       <c r="AK13">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AL13">
-        <v>3.8</v>
+        <v>10.5</v>
       </c>
       <c r="AM13">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AN13">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="AO13">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AP13">
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
       <c r="AQ13">
-        <v>80</v>
+        <v>980</v>
       </c>
       <c r="AR13">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="AS13">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AT13">
-        <v>4.4</v>
+        <v>6.8</v>
       </c>
       <c r="AU13">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AV13">
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
       <c r="AW13">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AX13">
-        <v>4.9</v>
+        <v>7.8</v>
       </c>
       <c r="AY13">
         <v>1000</v>
       </c>
       <c r="AZ13">
-        <v>3.5</v>
+        <v>6.8</v>
       </c>
       <c r="BA13">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="BB13">
-        <v>3.55</v>
+        <v>7</v>
       </c>
       <c r="BC13">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="BD13">
-        <v>4.9</v>
+        <v>8</v>
       </c>
       <c r="BE13">
         <v>1000</v>
